--- a/api/Templates/CSFunding 2017-18 Invoice Summary w Signature - Template.xlsx
+++ b/api/Templates/CSFunding 2017-18 Invoice Summary w Signature - Template.xlsx
@@ -21,6 +21,12 @@
   </si>
   <si>
     <t>Individual Student Information Sheet</t>
+  </si>
+  <si>
+    <t>Summary Information Sheet</t>
+  </si>
+  <si>
+    <t>For the Months of July 2017 to ${AsOfMonth} ${AsOfYear}</t>
   </si>
   <si>
     <r>
@@ -77,7 +83,73 @@
     <t>${SchoolDistrict.Name}</t>
   </si>
   <si>
+    <t>Invoice Prep Date:</t>
+  </si>
+  <si>
     <t>${Prepared}</t>
+  </si>
+  <si>
+    <t>Date Sent to SD:</t>
+  </si>
+  <si>
+    <t>${ToSchoolDistrict}</t>
+  </si>
+  <si>
+    <t>Date Sent to PDE:</t>
+  </si>
+  <si>
+    <t>${ToPDE}</t>
+  </si>
+  <si>
+    <t>JUL
+${FirstYear}</t>
+  </si>
+  <si>
+    <t>AUG
+${FirstYear}</t>
+  </si>
+  <si>
+    <t>SEP
+${FirstYear}</t>
+  </si>
+  <si>
+    <t>OCT
+${FirstYear}</t>
+  </si>
+  <si>
+    <t>NOV
+${FirstYear}</t>
+  </si>
+  <si>
+    <t>DEC
+${FirstYear}</t>
+  </si>
+  <si>
+    <t>JAN
+${SecondYear}</t>
+  </si>
+  <si>
+    <t>FEB
+${SecondYear}</t>
+  </si>
+  <si>
+    <t>MAR
+${SecondYear}</t>
+  </si>
+  <si>
+    <t>APR
+${SecondYear}</t>
+  </si>
+  <si>
+    <t>MAY
+${SecondYear}</t>
+  </si>
+  <si>
+    <t>JUNE
+${SecondYear}</t>
+  </si>
+  <si>
+    <t>Selected Expenditures per ADM</t>
   </si>
   <si>
     <t>Date of Birth</t>
@@ -86,7 +158,53 @@
     <t xml:space="preserve">CS Student </t>
   </si>
   <si>
+    <t>Amount
+Due</t>
+  </si>
+  <si>
+    <t>Nonspecial Education</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.July}</t>
+  </si>
+  <si>
     <t>Last Day</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.August}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.September}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.October}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.November}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.December}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.January}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.February}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.March}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.April}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.May}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.June}</t>
+  </si>
+  <si>
+    <t>${SchoolDistrict.RegularRate}</t>
   </si>
   <si>
     <t>Date of IEP</t>
@@ -140,7 +258,7 @@
     <t>Prior</t>
   </si>
   <si>
-    <t>${Students[0].LastName}, ${Students[0].FirstName} ${Students[0].MiddleInitial}</t>
+    <t>${Students[0].FullName}</t>
   </si>
   <si>
     <t>${Students[0].DateOfBirth}</t>
@@ -152,374 +270,7 @@
     <t>${Students[0].PaSecuredID}</t>
   </si>
   <si>
-    <t>${Students[0].Street1} ${Students[0].Street2}</t>
-  </si>
-  <si>
-    <t>${Students[0].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[0].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[0].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[0].City}, ${Students[0].State} ${Students[0].ZipCode}</t>
-  </si>
-  <si>
-    <t>${Students[0].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[0].FormerIep}</t>
-  </si>
-  <si>
-    <t>${Students[1].LastName}, ${Students[1].FirstName} ${Students[1].MiddleInitial}</t>
-  </si>
-  <si>
-    <t>${Students[1].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[1].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[1].PaSecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[1].Street1} ${Students[1].Street2}</t>
-  </si>
-  <si>
-    <t>${Students[1].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[1].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[1].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[1].City}, ${Students[1].State} ${Students[1].ZipCode}</t>
-  </si>
-  <si>
-    <t>${Students[1].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[1].FormerIep}</t>
-  </si>
-  <si>
-    <t>${Students[2].LastName}, ${Students[2].FirstName} ${Students[2].MiddleInitial}</t>
-  </si>
-  <si>
-    <t>${Students[2].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[2].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[2].PaSecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[2].Street1} ${Students[2].Street2}</t>
-  </si>
-  <si>
-    <t>${Students[2].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[2].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[2].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[2].City}, ${Students[2].State} ${Students[2].ZipCode}</t>
-  </si>
-  <si>
-    <t>${Students[2].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[2].FormerIep}</t>
-  </si>
-  <si>
-    <t>${Students[3].LastName}, ${Students[3].FirstName} ${Students[3].MiddleInitial}</t>
-  </si>
-  <si>
-    <t>${Students[3].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[3].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[3].PaSecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[3].Street1} ${Students[3].Street2}</t>
-  </si>
-  <si>
-    <t>${Students[3].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[3].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[3].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>Summary Information Sheet</t>
-  </si>
-  <si>
-    <t>${Students[3].City}, ${Students[3].State} ${Students[3].ZipCode}</t>
-  </si>
-  <si>
-    <t>${Students[3].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[3].FormerIep}</t>
-  </si>
-  <si>
-    <t>For the Months of July 2017 to ${AsOfMonth} ${AsOfYear}</t>
-  </si>
-  <si>
-    <t>${Students[4].LastName}, ${Students[4].FirstName} ${Students[4].MiddleInitial}</t>
-  </si>
-  <si>
-    <t>${Students[4].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[4].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[4].PaSecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[4].Street1} ${Students[4].Street2}</t>
-  </si>
-  <si>
-    <t>${Students[4].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[4].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[4].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>Invoice Prep Date:</t>
-  </si>
-  <si>
-    <t>${Students[4].City}, ${Students[4].State} ${Students[4].ZipCode}</t>
-  </si>
-  <si>
-    <t>${Students[4].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[4].FormerIep}</t>
-  </si>
-  <si>
-    <t>Date Sent to SD:</t>
-  </si>
-  <si>
-    <t>${ToSchoolDistrict}</t>
-  </si>
-  <si>
-    <t>Date Sent to PDE:</t>
-  </si>
-  <si>
-    <t>${ToPDE}</t>
-  </si>
-  <si>
-    <t>${Students[5].LastName}, ${Students[5].FirstName} ${Students[5].MiddleInitial}</t>
-  </si>
-  <si>
-    <t>${Students[5].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[5].CurrentIep}</t>
-  </si>
-  <si>
-    <t>JUL
-${FirstYear}</t>
-  </si>
-  <si>
-    <t>${Students[5].PaSecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[5].Street1} ${Students[5].Street2}</t>
-  </si>
-  <si>
-    <t>${Students[5].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[5].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[5].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[5].City}, ${Students[5].State} ${Students[5].ZipCode}</t>
-  </si>
-  <si>
-    <t>${Students[5].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[5].FormerIep}</t>
-  </si>
-  <si>
-    <t>AUG
-${FirstYear}</t>
-  </si>
-  <si>
-    <t>SEP
-${FirstYear}</t>
-  </si>
-  <si>
-    <t>OCT
-${FirstYear}</t>
-  </si>
-  <si>
-    <t>NOV
-${FirstYear}</t>
-  </si>
-  <si>
-    <t>DEC
-${FirstYear}</t>
-  </si>
-  <si>
-    <t>JAN
-${SecondYear}</t>
-  </si>
-  <si>
-    <t>FEB
-${SecondYear}</t>
-  </si>
-  <si>
-    <t>MAR
-${SecondYear}</t>
-  </si>
-  <si>
-    <t>APR
-${SecondYear}</t>
-  </si>
-  <si>
-    <t>MAY
-${SecondYear}</t>
-  </si>
-  <si>
-    <t>JUNE
-${SecondYear}</t>
-  </si>
-  <si>
-    <t>Selected Expenditures per ADM</t>
-  </si>
-  <si>
-    <t>${Students[6].LastName}, ${Students[6].FirstName} ${Students[6].MiddleInitial}</t>
-  </si>
-  <si>
-    <t>${Students[6].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[6].CurrentIep}</t>
-  </si>
-  <si>
-    <t>Amount
-Due</t>
-  </si>
-  <si>
-    <t>${Students[6].PaSecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[6].Street1} ${Students[6].Street2}</t>
-  </si>
-  <si>
-    <t>${Students[6].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[6].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[6].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[6].City}, ${Students[6].State} ${Students[6].ZipCode}</t>
-  </si>
-  <si>
-    <t>${Students[6].Grade}</t>
-  </si>
-  <si>
-    <t>Nonspecial Education</t>
-  </si>
-  <si>
-    <t>${Students[6].FormerIep}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.July}</t>
-  </si>
-  <si>
-    <t>${Students[7].LastName}, ${Students[7].FirstName} ${Students[7].MiddleInitial}</t>
-  </si>
-  <si>
-    <t>${Students[7].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[7].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[7].PaSecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[7].Street1} ${Students[7].Street2}</t>
-  </si>
-  <si>
-    <t>${Students[7].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[7].LastDay}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.August}</t>
-  </si>
-  <si>
-    <t>${Students[7].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.September}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.October}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.November}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.December}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.January}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.February}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.March}</t>
-  </si>
-  <si>
-    <t>${Students[7].City}, ${Students[7].State} ${Students[7].ZipCode}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.April}</t>
-  </si>
-  <si>
-    <t>${Students[8].Grade}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.May}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.June}</t>
-  </si>
-  <si>
-    <t>${Students[7].FormerIep}</t>
-  </si>
-  <si>
-    <t>${SchoolDistrict.RegularRate}</t>
+    <t>${Students[0].Address1}</t>
   </si>
   <si>
     <t>Special Education</t>
@@ -564,10 +315,70 @@
     <t>${SchoolDistrict.SpecialRate}</t>
   </si>
   <si>
+    <t>${Students[0].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[0].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[0].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[0].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[0].Grade}</t>
+  </si>
+  <si>
     <t>Total Amount Due Year to Date:</t>
   </si>
   <si>
+    <t>${Students[0].FormerIep}</t>
+  </si>
+  <si>
+    <t>${Students[1].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[1].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[1].CurrentIep}</t>
+  </si>
+  <si>
+    <t>${Students[1].PaSecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[1].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[1].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[1].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[1].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[1].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[1].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[1].FormerIep}</t>
+  </si>
+  <si>
+    <t>${Students[2].FullName}</t>
+  </si>
+  <si>
     <t xml:space="preserve"> School District</t>
+  </si>
+  <si>
+    <t>${Students[2].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[2].CurrentIep}</t>
   </si>
   <si>
     <t>Check</t>
@@ -579,10 +390,43 @@
     <t xml:space="preserve"> Refund from</t>
   </si>
   <si>
+    <t>${Students[2].PaSecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[2].Address1}</t>
+  </si>
+  <si>
     <t>Month</t>
   </si>
   <si>
+    <t>${Students[2].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[2].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[2].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[2].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[2].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[2].FormerIep}</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Direct Payment</t>
+  </si>
+  <si>
+    <t>${Students[3].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[3].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[3].CurrentIep}</t>
   </si>
   <si>
     <t>Date</t>
@@ -594,25 +438,181 @@
     <t xml:space="preserve">  Charter School</t>
   </si>
   <si>
+    <t>${Students[3].PaSecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[3].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[3].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[3].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[3].IsSpecialEducation}</t>
+  </si>
+  <si>
     <t>July, ${FirstYear}</t>
+  </si>
+  <si>
+    <t>${Students[3].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[3].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[3].FormerIep}</t>
+  </si>
+  <si>
+    <t>${Students[4].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[4].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[4].CurrentIep}</t>
+  </si>
+  <si>
+    <t>${Students[4].PaSecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[4].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[4].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[4].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[4].IsSpecialEducation}</t>
   </si>
   <si>
     <t>${Transactions.July.Payment.CheckAmount}</t>
   </si>
   <si>
+    <t>${Students[4].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[4].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[4].FormerIep}</t>
+  </si>
+  <si>
     <t>${Transactions.July.Payment.CheckNumber}</t>
+  </si>
+  <si>
+    <t>${Students[5].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[5].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[5].CurrentIep}</t>
   </si>
   <si>
     <t>${Transactions.July.Payment.Date}</t>
   </si>
   <si>
+    <t>${Students[5].PaSecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[5].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[5].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[5].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[5].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[5].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[5].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[5].FormerIep}</t>
+  </si>
+  <si>
     <t>${Transactions.July.Payment.UniPayAmount}</t>
+  </si>
+  <si>
+    <t>${Students[6].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[6].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[6].CurrentIep}</t>
   </si>
   <si>
     <t>${Transactions.July.Refund}</t>
   </si>
   <si>
+    <t>${Students[6].PaSecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[6].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[6].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[6].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[6].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[6].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[6].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[6].FormerIep}</t>
+  </si>
+  <si>
+    <t>${Students[7].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[7].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[7].CurrentIep}</t>
+  </si>
+  <si>
     <t>August</t>
+  </si>
+  <si>
+    <t>${Students[7].PaSecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[7].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[7].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[7].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[7].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[7].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[8].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[7].FormerIep}</t>
   </si>
   <si>
     <t>${Transactions.August.Payment.CheckAmount}</t>
@@ -899,12 +899,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <i/>
-      <sz val="8.0"/>
+      <sz val="9.0"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <i/>
+      <sz val="8.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -969,6 +969,20 @@
       <bottom/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -977,6 +991,17 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -1154,31 +1179,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -1329,10 +1329,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -1348,10 +1348,16 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1365,152 +1371,146 @@
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="21" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="23" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1650,8 +1650,8 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="2"/>
@@ -1661,17 +1661,17 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="9"/>
@@ -1712,7 +1712,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="1"/>
       <c r="H3" s="10" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -1742,7 +1742,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="1"/>
       <c r="H4" s="11" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -1764,21 +1764,21 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -1792,26 +1792,26 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>4</v>
+      <c r="A6" s="13" t="s">
+        <v>6</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="62"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63" t="s">
-        <v>81</v>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="M6" s="1"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="16" t="s">
-        <v>6</v>
+      <c r="N6" s="14"/>
+      <c r="O6" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1826,10 +1826,10 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="12" t="s">
-        <v>5</v>
+      <c r="A7" s="13" t="s">
+        <v>7</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1838,14 +1838,14 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63" t="s">
-        <v>85</v>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="16" t="s">
-        <v>86</v>
+      <c r="N7" s="14"/>
+      <c r="O7" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1860,8 +1860,8 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1870,14 +1870,14 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63" t="s">
-        <v>87</v>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="16" t="s">
-        <v>88</v>
+      <c r="N8" s="14"/>
+      <c r="O8" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1949,47 +1949,47 @@
     </row>
     <row r="11" ht="39.0" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="64" t="s">
-        <v>92</v>
+      <c r="B11" s="22" t="s">
+        <v>14</v>
       </c>
-      <c r="C11" s="64" t="s">
-        <v>101</v>
+      <c r="C11" s="22" t="s">
+        <v>15</v>
       </c>
-      <c r="D11" s="64" t="s">
-        <v>102</v>
+      <c r="D11" s="22" t="s">
+        <v>16</v>
       </c>
-      <c r="E11" s="64" t="s">
-        <v>103</v>
+      <c r="E11" s="22" t="s">
+        <v>17</v>
       </c>
-      <c r="F11" s="64" t="s">
-        <v>104</v>
+      <c r="F11" s="22" t="s">
+        <v>18</v>
       </c>
-      <c r="G11" s="64" t="s">
-        <v>105</v>
+      <c r="G11" s="22" t="s">
+        <v>19</v>
       </c>
-      <c r="H11" s="64" t="s">
-        <v>106</v>
+      <c r="H11" s="22" t="s">
+        <v>20</v>
       </c>
-      <c r="I11" s="64" t="s">
-        <v>107</v>
+      <c r="I11" s="22" t="s">
+        <v>21</v>
       </c>
-      <c r="J11" s="64" t="s">
-        <v>108</v>
+      <c r="J11" s="22" t="s">
+        <v>22</v>
       </c>
-      <c r="K11" s="64" t="s">
-        <v>109</v>
+      <c r="K11" s="22" t="s">
+        <v>23</v>
       </c>
-      <c r="L11" s="64" t="s">
-        <v>110</v>
+      <c r="L11" s="22" t="s">
+        <v>24</v>
       </c>
-      <c r="M11" s="64" t="s">
-        <v>111</v>
+      <c r="M11" s="22" t="s">
+        <v>25</v>
       </c>
-      <c r="N11" s="65" t="s">
-        <v>112</v>
+      <c r="N11" s="24" t="s">
+        <v>26</v>
       </c>
-      <c r="O11" s="66" t="s">
-        <v>116</v>
+      <c r="O11" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -2004,49 +2004,49 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="67" t="s">
-        <v>124</v>
+      <c r="A12" s="27" t="s">
+        <v>30</v>
       </c>
-      <c r="B12" s="68" t="s">
-        <v>126</v>
+      <c r="B12" s="29" t="s">
+        <v>31</v>
       </c>
-      <c r="C12" s="68" t="s">
-        <v>134</v>
+      <c r="C12" s="29" t="s">
+        <v>33</v>
       </c>
-      <c r="D12" s="68" t="s">
-        <v>136</v>
+      <c r="D12" s="29" t="s">
+        <v>34</v>
       </c>
-      <c r="E12" s="68" t="s">
-        <v>137</v>
+      <c r="E12" s="29" t="s">
+        <v>35</v>
       </c>
-      <c r="F12" s="68" t="s">
-        <v>138</v>
+      <c r="F12" s="29" t="s">
+        <v>36</v>
       </c>
-      <c r="G12" s="68" t="s">
-        <v>139</v>
+      <c r="G12" s="29" t="s">
+        <v>37</v>
       </c>
-      <c r="H12" s="68" t="s">
-        <v>140</v>
+      <c r="H12" s="29" t="s">
+        <v>38</v>
       </c>
-      <c r="I12" s="68" t="s">
-        <v>141</v>
+      <c r="I12" s="29" t="s">
+        <v>39</v>
       </c>
-      <c r="J12" s="68" t="s">
-        <v>142</v>
+      <c r="J12" s="29" t="s">
+        <v>40</v>
       </c>
-      <c r="K12" s="68" t="s">
-        <v>144</v>
+      <c r="K12" s="29" t="s">
+        <v>41</v>
       </c>
-      <c r="L12" s="68" t="s">
-        <v>146</v>
+      <c r="L12" s="29" t="s">
+        <v>42</v>
       </c>
-      <c r="M12" s="68" t="s">
-        <v>147</v>
+      <c r="M12" s="29" t="s">
+        <v>43</v>
       </c>
-      <c r="N12" s="69" t="s">
-        <v>149</v>
+      <c r="N12" s="31" t="s">
+        <v>44</v>
       </c>
-      <c r="O12" s="70" t="str">
+      <c r="O12" s="54" t="str">
         <f t="shared" ref="O12:O13" si="1">ROUND(SUMIF(B12:M12,"&gt;0")*N12/12,2)</f>
         <v>#VALUE!</v>
       </c>
@@ -2063,49 +2063,49 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="67" t="s">
-        <v>150</v>
+      <c r="A13" s="27" t="s">
+        <v>67</v>
       </c>
-      <c r="B13" s="68" t="s">
-        <v>151</v>
+      <c r="B13" s="29" t="s">
+        <v>68</v>
       </c>
-      <c r="C13" s="68" t="s">
-        <v>152</v>
+      <c r="C13" s="29" t="s">
+        <v>69</v>
       </c>
-      <c r="D13" s="68" t="s">
-        <v>153</v>
+      <c r="D13" s="29" t="s">
+        <v>70</v>
       </c>
-      <c r="E13" s="68" t="s">
-        <v>154</v>
+      <c r="E13" s="29" t="s">
+        <v>71</v>
       </c>
-      <c r="F13" s="68" t="s">
-        <v>155</v>
+      <c r="F13" s="29" t="s">
+        <v>72</v>
       </c>
-      <c r="G13" s="68" t="s">
-        <v>156</v>
+      <c r="G13" s="29" t="s">
+        <v>73</v>
       </c>
-      <c r="H13" s="68" t="s">
-        <v>157</v>
+      <c r="H13" s="29" t="s">
+        <v>74</v>
       </c>
-      <c r="I13" s="68" t="s">
-        <v>158</v>
+      <c r="I13" s="29" t="s">
+        <v>75</v>
       </c>
-      <c r="J13" s="68" t="s">
-        <v>159</v>
+      <c r="J13" s="29" t="s">
+        <v>76</v>
       </c>
-      <c r="K13" s="68" t="s">
-        <v>160</v>
+      <c r="K13" s="29" t="s">
+        <v>77</v>
       </c>
-      <c r="L13" s="68" t="s">
-        <v>161</v>
+      <c r="L13" s="29" t="s">
+        <v>78</v>
       </c>
-      <c r="M13" s="68" t="s">
-        <v>162</v>
+      <c r="M13" s="29" t="s">
+        <v>79</v>
       </c>
-      <c r="N13" s="69" t="s">
-        <v>163</v>
+      <c r="N13" s="31" t="s">
+        <v>80</v>
       </c>
-      <c r="O13" s="70" t="str">
+      <c r="O13" s="54" t="str">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
@@ -2161,10 +2161,10 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="72" t="s">
-        <v>164</v>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="67" t="s">
+        <v>86</v>
       </c>
       <c r="O15" s="73" t="str">
         <f>SUM(O12:O13)</f>
@@ -2216,21 +2216,21 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="74" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="8" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="I17" s="74" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="74" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2252,25 +2252,25 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="75" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="D18" s="75"/>
       <c r="E18" s="76" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
-      <c r="F18" s="33"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="8" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="I18" s="76" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="J18" s="77"/>
       <c r="K18" s="76" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="L18" s="77"/>
       <c r="M18" s="77"/>
@@ -2292,26 +2292,26 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="78" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="D19" s="79"/>
       <c r="E19" s="80"/>
       <c r="F19" s="81" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="G19" s="82" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="H19" s="83" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="I19" s="84"/>
       <c r="J19" s="85" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K19" s="84"/>
       <c r="L19" s="86" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="M19" s="87"/>
       <c r="N19" s="1"/>
@@ -2332,7 +2332,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="88"/>
@@ -2847,7 +2847,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="72" t="s">
+      <c r="N33" s="67" t="s">
         <v>246</v>
       </c>
       <c r="O33" s="109">
@@ -2908,7 +2908,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="72" t="str">
+      <c r="N35" s="67" t="str">
         <f>IF(O15-O33&gt;=0,"Net Due to Charter School:","Net Due to School District:")</f>
         <v>#VALUE!</v>
       </c>
@@ -3113,7 +3113,7 @@
       <c r="H42" s="112"/>
       <c r="I42" s="112"/>
       <c r="J42" s="113" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K42" s="112"/>
       <c r="L42" s="112"/>
@@ -3144,7 +3144,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="114" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>251</v>
@@ -29999,7 +29999,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="3"/>
@@ -30090,7 +30090,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -30115,11 +30115,11 @@
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="12" t="s">
-        <v>4</v>
+      <c r="B5" s="13" t="s">
+        <v>6</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="10"/>
@@ -30145,19 +30145,19 @@
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="12" t="s">
-        <v>5</v>
+      <c r="B6" s="13" t="s">
+        <v>7</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="16" t="s">
-        <v>6</v>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -30179,12 +30179,12 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -30205,23 +30205,23 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="18" t="s">
-        <v>7</v>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="20" t="s">
+        <v>27</v>
       </c>
-      <c r="G8" s="21" t="s">
-        <v>8</v>
+      <c r="G8" s="26" t="s">
+        <v>28</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23" t="s">
-        <v>9</v>
+      <c r="H8" s="28"/>
+      <c r="I8" s="30" t="s">
+        <v>32</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21" t="s">
-        <v>10</v>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -30241,25 +30241,25 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29" t="s">
-        <v>11</v>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37" t="s">
+        <v>46</v>
       </c>
-      <c r="H9" s="30" t="s">
-        <v>12</v>
+      <c r="H9" s="38" t="s">
+        <v>47</v>
       </c>
-      <c r="I9" s="30" t="s">
-        <v>13</v>
+      <c r="I9" s="38" t="s">
+        <v>48</v>
       </c>
-      <c r="J9" s="29" t="s">
-        <v>14</v>
+      <c r="J9" s="37" t="s">
+        <v>49</v>
       </c>
-      <c r="K9" s="31" t="s">
-        <v>15</v>
+      <c r="K9" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -30279,33 +30279,33 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="24" t="s">
-        <v>16</v>
+      <c r="B10" s="32" t="s">
+        <v>51</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>17</v>
+      <c r="C10" s="33" t="s">
+        <v>52</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>18</v>
+      <c r="D10" s="33" t="s">
+        <v>53</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="21" t="s">
-        <v>19</v>
+      <c r="E10" s="35"/>
+      <c r="F10" s="26" t="s">
+        <v>54</v>
       </c>
-      <c r="G10" s="29" t="s">
-        <v>20</v>
+      <c r="G10" s="37" t="s">
+        <v>55</v>
       </c>
-      <c r="H10" s="30" t="s">
-        <v>13</v>
+      <c r="H10" s="38" t="s">
+        <v>48</v>
       </c>
-      <c r="I10" s="32" t="s">
-        <v>21</v>
+      <c r="I10" s="40" t="s">
+        <v>56</v>
       </c>
-      <c r="J10" s="29" t="s">
-        <v>22</v>
+      <c r="J10" s="37" t="s">
+        <v>57</v>
       </c>
-      <c r="K10" s="21" t="s">
-        <v>10</v>
+      <c r="K10" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -30324,1135 +30324,1135 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="31" t="s">
-        <v>23</v>
+      <c r="A11" s="41"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="39" t="s">
+        <v>58</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38" t="s">
-        <v>24</v>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46" t="s">
+        <v>59</v>
       </c>
-      <c r="J11" s="31" t="s">
-        <v>25</v>
+      <c r="J11" s="39" t="s">
+        <v>60</v>
       </c>
-      <c r="K11" s="31" t="s">
-        <v>26</v>
+      <c r="K11" s="39" t="s">
+        <v>61</v>
       </c>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41" t="s">
-        <v>27</v>
+      <c r="A12" s="41"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49" t="s">
+        <v>62</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43" t="s">
-        <v>28</v>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51" t="s">
+        <v>63</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="43" t="s">
-        <v>29</v>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="51" t="s">
+        <v>64</v>
       </c>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="46">
+      <c r="A13" s="41"/>
+      <c r="B13" s="55">
         <v>1.0</v>
       </c>
-      <c r="C13" s="47" t="s">
-        <v>30</v>
+      <c r="C13" s="56" t="s">
+        <v>65</v>
       </c>
-      <c r="D13" s="48" t="s">
-        <v>31</v>
+      <c r="D13" s="57" t="s">
+        <v>66</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52" t="s">
-        <v>32</v>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61" t="s">
+        <v>81</v>
       </c>
-      <c r="I13" s="52" t="s">
-        <v>33</v>
+      <c r="I13" s="61" t="s">
+        <v>82</v>
       </c>
-      <c r="J13" s="53" t="s">
-        <v>34</v>
+      <c r="J13" s="62" t="s">
+        <v>83</v>
       </c>
-      <c r="K13" s="54"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="33"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="48" t="s">
-        <v>35</v>
+      <c r="A14" s="41"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="57" t="s">
+        <v>84</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="56" t="s">
-        <v>36</v>
+      <c r="E14" s="58"/>
+      <c r="F14" s="66" t="s">
+        <v>85</v>
       </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="43" t="s">
-        <v>37</v>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="51" t="s">
+        <v>87</v>
       </c>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41" t="s">
-        <v>38</v>
+      <c r="A16" s="41"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49" t="s">
+        <v>88</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43" t="s">
-        <v>39</v>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51" t="s">
+        <v>89</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="43" t="s">
-        <v>40</v>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="51" t="s">
+        <v>90</v>
       </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="46">
+      <c r="A17" s="41"/>
+      <c r="B17" s="55">
         <f>B13+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="47" t="s">
-        <v>41</v>
+      <c r="C17" s="56" t="s">
+        <v>91</v>
       </c>
-      <c r="D17" s="48" t="s">
-        <v>42</v>
+      <c r="D17" s="57" t="s">
+        <v>92</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="52" t="s">
-        <v>43</v>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="61" t="s">
+        <v>93</v>
       </c>
-      <c r="I17" s="52" t="s">
-        <v>44</v>
+      <c r="I17" s="61" t="s">
+        <v>94</v>
       </c>
-      <c r="J17" s="53" t="s">
-        <v>45</v>
+      <c r="J17" s="62" t="s">
+        <v>95</v>
       </c>
-      <c r="K17" s="54"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="33"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="48" t="s">
-        <v>46</v>
+      <c r="A18" s="41"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="57" t="s">
+        <v>96</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="56" t="s">
-        <v>47</v>
+      <c r="E18" s="58"/>
+      <c r="F18" s="66" t="s">
+        <v>97</v>
       </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="43" t="s">
-        <v>48</v>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="51" t="s">
+        <v>98</v>
       </c>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="33"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41" t="s">
-        <v>49</v>
+      <c r="A20" s="41"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49" t="s">
+        <v>99</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43" t="s">
-        <v>50</v>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51" t="s">
+        <v>101</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="43" t="s">
-        <v>51</v>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="51" t="s">
+        <v>102</v>
       </c>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="46">
+      <c r="A21" s="41"/>
+      <c r="B21" s="55">
         <f>B17+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="47" t="s">
-        <v>52</v>
+      <c r="C21" s="56" t="s">
+        <v>106</v>
       </c>
-      <c r="D21" s="48" t="s">
-        <v>53</v>
+      <c r="D21" s="57" t="s">
+        <v>107</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="52" t="s">
-        <v>54</v>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="61" t="s">
+        <v>109</v>
       </c>
-      <c r="I21" s="52" t="s">
-        <v>55</v>
+      <c r="I21" s="61" t="s">
+        <v>110</v>
       </c>
-      <c r="J21" s="53" t="s">
-        <v>56</v>
+      <c r="J21" s="62" t="s">
+        <v>111</v>
       </c>
-      <c r="K21" s="54"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="33"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="48" t="s">
-        <v>57</v>
+      <c r="A22" s="41"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="57" t="s">
+        <v>112</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="56" t="s">
-        <v>58</v>
+      <c r="E22" s="58"/>
+      <c r="F22" s="66" t="s">
+        <v>113</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="43" t="s">
-        <v>59</v>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="51" t="s">
+        <v>114</v>
       </c>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="33"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="33"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41" t="s">
-        <v>60</v>
+      <c r="A24" s="41"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49" t="s">
+        <v>116</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43" t="s">
-        <v>61</v>
+      <c r="E24" s="50"/>
+      <c r="F24" s="51" t="s">
+        <v>117</v>
       </c>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="43" t="s">
-        <v>62</v>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="51" t="s">
+        <v>118</v>
       </c>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="33"/>
-      <c r="B25" s="46">
+      <c r="A25" s="41"/>
+      <c r="B25" s="55">
         <f>B21+1</f>
         <v>4</v>
       </c>
-      <c r="C25" s="47" t="s">
-        <v>63</v>
+      <c r="C25" s="56" t="s">
+        <v>122</v>
       </c>
-      <c r="D25" s="48" t="s">
-        <v>64</v>
+      <c r="D25" s="57" t="s">
+        <v>123</v>
       </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="52" t="s">
-        <v>65</v>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="61" t="s">
+        <v>124</v>
       </c>
-      <c r="I25" s="52" t="s">
-        <v>66</v>
+      <c r="I25" s="61" t="s">
+        <v>125</v>
       </c>
-      <c r="J25" s="53" t="s">
-        <v>67</v>
+      <c r="J25" s="62" t="s">
+        <v>126</v>
       </c>
-      <c r="K25" s="54"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="33"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="48" t="s">
-        <v>69</v>
+      <c r="A26" s="41"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="57" t="s">
+        <v>128</v>
       </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="56" t="s">
-        <v>70</v>
+      <c r="E26" s="58"/>
+      <c r="F26" s="66" t="s">
+        <v>129</v>
       </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="43" t="s">
-        <v>71</v>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="51" t="s">
+        <v>130</v>
       </c>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="33"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="33"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41" t="s">
-        <v>73</v>
+      <c r="A28" s="41"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49" t="s">
+        <v>131</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43" t="s">
-        <v>74</v>
+      <c r="E28" s="50"/>
+      <c r="F28" s="51" t="s">
+        <v>132</v>
       </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="43" t="s">
-        <v>75</v>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="51" t="s">
+        <v>133</v>
       </c>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="41"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="33"/>
-      <c r="B29" s="46">
+      <c r="A29" s="41"/>
+      <c r="B29" s="55">
         <f>B25+1</f>
         <v>5</v>
       </c>
-      <c r="C29" s="47" t="s">
-        <v>76</v>
+      <c r="C29" s="56" t="s">
+        <v>134</v>
       </c>
-      <c r="D29" s="48" t="s">
-        <v>77</v>
+      <c r="D29" s="57" t="s">
+        <v>135</v>
       </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="52" t="s">
-        <v>78</v>
+      <c r="E29" s="58"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="61" t="s">
+        <v>136</v>
       </c>
-      <c r="I29" s="52" t="s">
-        <v>79</v>
+      <c r="I29" s="61" t="s">
+        <v>137</v>
       </c>
-      <c r="J29" s="53" t="s">
-        <v>80</v>
+      <c r="J29" s="62" t="s">
+        <v>138</v>
       </c>
-      <c r="K29" s="54"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="33"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="48" t="s">
-        <v>82</v>
+      <c r="A30" s="41"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="57" t="s">
+        <v>140</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="56" t="s">
-        <v>83</v>
+      <c r="E30" s="58"/>
+      <c r="F30" s="66" t="s">
+        <v>141</v>
       </c>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="43" t="s">
-        <v>84</v>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="51" t="s">
+        <v>142</v>
       </c>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="33"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="33"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41" t="s">
-        <v>89</v>
+      <c r="A32" s="41"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49" t="s">
+        <v>144</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43" t="s">
-        <v>90</v>
+      <c r="E32" s="50"/>
+      <c r="F32" s="51" t="s">
+        <v>145</v>
       </c>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="43" t="s">
-        <v>91</v>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="51" t="s">
+        <v>146</v>
       </c>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="33"/>
-      <c r="B33" s="46">
+      <c r="A33" s="41"/>
+      <c r="B33" s="55">
         <f>B29+1</f>
         <v>6</v>
       </c>
-      <c r="C33" s="47" t="s">
-        <v>93</v>
+      <c r="C33" s="56" t="s">
+        <v>148</v>
       </c>
-      <c r="D33" s="48" t="s">
-        <v>94</v>
+      <c r="D33" s="57" t="s">
+        <v>149</v>
       </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="52" t="s">
-        <v>95</v>
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="61" t="s">
+        <v>150</v>
       </c>
-      <c r="I33" s="52" t="s">
-        <v>96</v>
+      <c r="I33" s="61" t="s">
+        <v>151</v>
       </c>
-      <c r="J33" s="53" t="s">
-        <v>97</v>
+      <c r="J33" s="62" t="s">
+        <v>152</v>
       </c>
-      <c r="K33" s="54"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="33"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="41"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="33"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="48" t="s">
-        <v>98</v>
+      <c r="A34" s="41"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="57" t="s">
+        <v>153</v>
       </c>
-      <c r="E34" s="49"/>
-      <c r="F34" s="56" t="s">
-        <v>99</v>
+      <c r="E34" s="58"/>
+      <c r="F34" s="66" t="s">
+        <v>154</v>
       </c>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="43" t="s">
-        <v>100</v>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="51" t="s">
+        <v>155</v>
       </c>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="41"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="33"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="33"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="41" t="s">
-        <v>113</v>
+      <c r="A36" s="41"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49" t="s">
+        <v>157</v>
       </c>
-      <c r="E36" s="42"/>
-      <c r="F36" s="43" t="s">
-        <v>114</v>
+      <c r="E36" s="50"/>
+      <c r="F36" s="51" t="s">
+        <v>158</v>
       </c>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="43" t="s">
-        <v>115</v>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="51" t="s">
+        <v>159</v>
       </c>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="33"/>
-      <c r="B37" s="46">
+      <c r="A37" s="41"/>
+      <c r="B37" s="55">
         <f>B33+1</f>
         <v>7</v>
       </c>
-      <c r="C37" s="47" t="s">
-        <v>117</v>
+      <c r="C37" s="56" t="s">
+        <v>161</v>
       </c>
-      <c r="D37" s="48" t="s">
-        <v>118</v>
+      <c r="D37" s="57" t="s">
+        <v>162</v>
       </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="52" t="s">
-        <v>119</v>
+      <c r="E37" s="58"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="61" t="s">
+        <v>163</v>
       </c>
-      <c r="I37" s="52" t="s">
-        <v>120</v>
+      <c r="I37" s="61" t="s">
+        <v>164</v>
       </c>
-      <c r="J37" s="53" t="s">
-        <v>121</v>
+      <c r="J37" s="62" t="s">
+        <v>165</v>
       </c>
-      <c r="K37" s="54"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="41"/>
+      <c r="Z37" s="41"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="33"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="48" t="s">
-        <v>122</v>
+      <c r="A38" s="41"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="57" t="s">
+        <v>166</v>
       </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="56" t="s">
-        <v>123</v>
+      <c r="E38" s="58"/>
+      <c r="F38" s="66" t="s">
+        <v>167</v>
       </c>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="43" t="s">
-        <v>125</v>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="51" t="s">
+        <v>168</v>
       </c>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="33"/>
-      <c r="V38" s="33"/>
-      <c r="W38" s="33"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="33"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="41"/>
+      <c r="W38" s="41"/>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="41"/>
+      <c r="Z38" s="41"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="33"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="41"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="33"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="41" t="s">
-        <v>127</v>
+      <c r="A40" s="41"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49" t="s">
+        <v>169</v>
       </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="43" t="s">
-        <v>128</v>
+      <c r="E40" s="50"/>
+      <c r="F40" s="51" t="s">
+        <v>170</v>
       </c>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="43" t="s">
-        <v>129</v>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="51" t="s">
+        <v>171</v>
       </c>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="33"/>
-      <c r="U40" s="33"/>
-      <c r="V40" s="33"/>
-      <c r="W40" s="33"/>
-      <c r="X40" s="33"/>
-      <c r="Y40" s="33"/>
-      <c r="Z40" s="33"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="41"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="33"/>
-      <c r="B41" s="46">
+      <c r="A41" s="41"/>
+      <c r="B41" s="55">
         <f>B37+1</f>
         <v>8</v>
       </c>
-      <c r="C41" s="47" t="s">
-        <v>130</v>
+      <c r="C41" s="56" t="s">
+        <v>173</v>
       </c>
-      <c r="D41" s="48" t="s">
-        <v>131</v>
+      <c r="D41" s="57" t="s">
+        <v>174</v>
       </c>
-      <c r="E41" s="49"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="52" t="s">
-        <v>132</v>
+      <c r="E41" s="58"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="61" t="s">
+        <v>175</v>
       </c>
-      <c r="I41" s="52" t="s">
-        <v>133</v>
+      <c r="I41" s="61" t="s">
+        <v>176</v>
       </c>
-      <c r="J41" s="53" t="s">
-        <v>135</v>
+      <c r="J41" s="62" t="s">
+        <v>177</v>
       </c>
-      <c r="K41" s="54"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="33"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="33"/>
-      <c r="W41" s="33"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="33"/>
-      <c r="Z41" s="33"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="41"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="33"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="48" t="s">
-        <v>143</v>
+      <c r="A42" s="41"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="57" t="s">
+        <v>178</v>
       </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="56" t="s">
-        <v>145</v>
+      <c r="E42" s="58"/>
+      <c r="F42" s="66" t="s">
+        <v>179</v>
       </c>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="43" t="s">
-        <v>148</v>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="51" t="s">
+        <v>180</v>
       </c>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="33"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="33"/>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="33"/>
-      <c r="Z42" s="33"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="41"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="33"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="33"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="33"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="33"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="33"/>
-      <c r="W43" s="33"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="33"/>
-      <c r="Z43" s="33"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="41"/>
+      <c r="Z43" s="41"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="1"/>

--- a/api/Templates/CSFunding 2017-18 Invoice Summary w Signature - Template.xlsx
+++ b/api/Templates/CSFunding 2017-18 Invoice Summary w Signature - Template.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="261">
   <si>
     <t>Pennsylvania Cyber Charter School</t>
   </si>
@@ -20,13 +20,34 @@
     <t>INVOICE FOR THE ${FirstYear}-${SecondYear} SCHOOL YEAR</t>
   </si>
   <si>
-    <t>Individual Student Information Sheet</t>
+    <t>Remit To:</t>
   </si>
   <si>
     <t>Summary Information Sheet</t>
   </si>
   <si>
-    <t>For the Months of July 2017 to ${AsOfMonth} ${AsOfYear}</t>
+    <t>Pennsylvania Cyber Charter</t>
+  </si>
+  <si>
+    <t>For the Months of July ${FirstYear} to ${AsOfMonth} ${AsOfYear}</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Invoice #: ${Number}</t>
+  </si>
+  <si>
+    <t>${SchoolDistrict.Aun}</t>
+  </si>
+  <si>
+    <t>Business Office, Suite A130</t>
+  </si>
+  <si>
+    <t>Individual Student Information Sheet</t>
+  </si>
+  <si>
+    <t>652 Midland Ave</t>
   </si>
   <si>
     <r>
@@ -77,10 +98,7 @@
     </r>
   </si>
   <si>
-    <t>${SchoolDistrict.Aun}</t>
-  </si>
-  <si>
-    <t>${SchoolDistrict.Name}</t>
+    <t>Midland, PA 15059</t>
   </si>
   <si>
     <t>Invoice Prep Date:</t>
@@ -89,10 +107,16 @@
     <t>${Prepared}</t>
   </si>
   <si>
+    <t>${SchoolDistrict.Name}</t>
+  </si>
+  <si>
     <t>Date Sent to SD:</t>
   </si>
   <si>
     <t>${ToSchoolDistrict}</t>
+  </si>
+  <si>
+    <t>724-888-7792</t>
   </si>
   <si>
     <t>Date Sent to PDE:</t>
@@ -152,23 +176,23 @@
     <t>Selected Expenditures per ADM</t>
   </si>
   <si>
+    <t>Amount
+Due</t>
+  </si>
+  <si>
     <t>Date of Birth</t>
   </si>
   <si>
     <t xml:space="preserve">CS Student </t>
   </si>
   <si>
-    <t>Amount
-Due</t>
-  </si>
-  <si>
     <t>Nonspecial Education</t>
   </si>
   <si>
-    <t>${RegularEnrollments.July}</t>
+    <t>Last Day</t>
   </si>
   <si>
-    <t>Last Day</t>
+    <t>${RegularEnrollments.July}</t>
   </si>
   <si>
     <t>${RegularEnrollments.August}</t>
@@ -208,69 +232,6 @@
   </si>
   <si>
     <t>Date of IEP</t>
-  </si>
-  <si>
-    <t>Enrollment</t>
-  </si>
-  <si>
-    <t>First Day</t>
-  </si>
-  <si>
-    <t>Educated</t>
-  </si>
-  <si>
-    <t>Special</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>PASecureID</t>
-  </si>
-  <si>
-    <t>Student Name and Address</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>Notification</t>
-  </si>
-  <si>
-    <t>(if student</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Form Sent to SD:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> withdrew)</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Prior</t>
-  </si>
-  <si>
-    <t>${Students[0].FullName}</t>
-  </si>
-  <si>
-    <t>${Students[0].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[0].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[0].PaSecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[0].Address1}</t>
   </si>
   <si>
     <t>Special Education</t>
@@ -315,70 +276,40 @@
     <t>${SchoolDistrict.SpecialRate}</t>
   </si>
   <si>
-    <t>${Students[0].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[0].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[0].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[0].Address2}</t>
-  </si>
-  <si>
-    <t>${Students[0].Grade}</t>
+    <t>Enrollment</t>
   </si>
   <si>
     <t>Total Amount Due Year to Date:</t>
   </si>
   <si>
-    <t>${Students[0].FormerIep}</t>
+    <t>First Day</t>
   </si>
   <si>
-    <t>${Students[1].FullName}</t>
+    <t>Educated</t>
   </si>
   <si>
-    <t>${Students[1].DateOfBirth}</t>
+    <t>Special</t>
   </si>
   <si>
-    <t>${Students[1].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[1].PaSecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[1].Address1}</t>
-  </si>
-  <si>
-    <t>${Students[1].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[1].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[1].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[1].Address2}</t>
-  </si>
-  <si>
-    <t>${Students[1].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[1].FormerIep}</t>
-  </si>
-  <si>
-    <t>${Students[2].FullName}</t>
+    <t>Current</t>
   </si>
   <si>
     <t xml:space="preserve"> School District</t>
   </si>
   <si>
-    <t>${Students[2].DateOfBirth}</t>
+    <t>Number</t>
   </si>
   <si>
-    <t>${Students[2].CurrentIep}</t>
+    <t>PASecureID</t>
+  </si>
+  <si>
+    <t>Student Name and Address</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Notification</t>
   </si>
   <si>
     <t>Check</t>
@@ -387,46 +318,31 @@
     <t xml:space="preserve">   PDE Subsidy</t>
   </si>
   <si>
-    <t xml:space="preserve"> Refund from</t>
+    <t>(if student</t>
   </si>
   <si>
-    <t>${Students[2].PaSecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[2].Address1}</t>
+    <t xml:space="preserve"> Refund from</t>
   </si>
   <si>
     <t>Month</t>
   </si>
   <si>
-    <t>${Students[2].FirstDay}</t>
+    <t>Education</t>
   </si>
   <si>
-    <t>${Students[2].LastDay}</t>
+    <t>Form Sent to SD:</t>
   </si>
   <si>
-    <t>${Students[2].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[2].Address2}</t>
-  </si>
-  <si>
-    <t>${Students[2].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[2].FormerIep}</t>
+    <t xml:space="preserve"> withdrew)</t>
   </si>
   <si>
     <t xml:space="preserve"> Direct Payment</t>
   </si>
   <si>
-    <t>${Students[3].FullName}</t>
+    <t>Student</t>
   </si>
   <si>
-    <t>${Students[3].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[3].CurrentIep}</t>
+    <t>Prior</t>
   </si>
   <si>
     <t>Date</t>
@@ -438,181 +354,40 @@
     <t xml:space="preserve">  Charter School</t>
   </si>
   <si>
-    <t>${Students[3].PaSecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[3].Address1}</t>
-  </si>
-  <si>
-    <t>${Students[3].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[3].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[3].IsSpecialEducation}</t>
-  </si>
-  <si>
     <t>July, ${FirstYear}</t>
   </si>
   <si>
-    <t>${Students[3].Address2}</t>
-  </si>
-  <si>
-    <t>${Students[3].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[3].FormerIep}</t>
-  </si>
-  <si>
-    <t>${Students[4].FullName}</t>
-  </si>
-  <si>
-    <t>${Students[4].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[4].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[4].PaSecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[4].Address1}</t>
-  </si>
-  <si>
-    <t>${Students[4].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[4].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[4].IsSpecialEducation}</t>
+    <t>${Students[0].FullName}</t>
   </si>
   <si>
     <t>${Transactions.July.Payment.CheckAmount}</t>
   </si>
   <si>
-    <t>${Students[4].Address2}</t>
-  </si>
-  <si>
-    <t>${Students[4].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[4].FormerIep}</t>
+    <t>${Students[0].DateOfBirth}</t>
   </si>
   <si>
     <t>${Transactions.July.Payment.CheckNumber}</t>
   </si>
   <si>
-    <t>${Students[5].FullName}</t>
-  </si>
-  <si>
-    <t>${Students[5].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[5].CurrentIep}</t>
-  </si>
-  <si>
     <t>${Transactions.July.Payment.Date}</t>
   </si>
   <si>
-    <t>${Students[5].PaSecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[5].Address1}</t>
-  </si>
-  <si>
-    <t>${Students[5].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[5].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[5].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[5].Address2}</t>
-  </si>
-  <si>
-    <t>${Students[5].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[5].FormerIep}</t>
+    <t>${Students[0].CurrentIep}</t>
   </si>
   <si>
     <t>${Transactions.July.Payment.UniPayAmount}</t>
   </si>
   <si>
-    <t>${Students[6].FullName}</t>
-  </si>
-  <si>
-    <t>${Students[6].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[6].CurrentIep}</t>
-  </si>
-  <si>
     <t>${Transactions.July.Refund}</t>
   </si>
   <si>
-    <t>${Students[6].PaSecuredID}</t>
+    <t>${Students[0].PaSecuredID}</t>
   </si>
   <si>
-    <t>${Students[6].Address1}</t>
-  </si>
-  <si>
-    <t>${Students[6].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[6].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[6].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[6].Address2}</t>
-  </si>
-  <si>
-    <t>${Students[6].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[6].FormerIep}</t>
-  </si>
-  <si>
-    <t>${Students[7].FullName}</t>
-  </si>
-  <si>
-    <t>${Students[7].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[7].CurrentIep}</t>
+    <t>${Students[0].Address1}</t>
   </si>
   <si>
     <t>August</t>
-  </si>
-  <si>
-    <t>${Students[7].PaSecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[7].Address1}</t>
-  </si>
-  <si>
-    <t>${Students[7].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[7].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[7].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[7].Address2}</t>
-  </si>
-  <si>
-    <t>${Students[8].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[7].FormerIep}</t>
   </si>
   <si>
     <t>${Transactions.August.Payment.CheckAmount}</t>
@@ -622,6 +397,9 @@
   </si>
   <si>
     <t>${Transactions.August.Payment.Date}</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t>${Transactions.August.Payment.UniPayAmount}</t>
@@ -654,6 +432,9 @@
     <t>${Transactions.October.Payment.CheckAmount}</t>
   </si>
   <si>
+    <t>${Students[0].FirstDay}</t>
+  </si>
+  <si>
     <t>${Transactions.October.Payment.CheckNumber}</t>
   </si>
   <si>
@@ -682,6 +463,12 @@
   </si>
   <si>
     <t>${Transactions.November.Refund}</t>
+  </si>
+  <si>
+    <t>${Students[0].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[0].IsSpecialEducation}</t>
   </si>
   <si>
     <t>December</t>
@@ -735,7 +522,13 @@
     <t>${Transactions.February.Payment.UniPayAmount}</t>
   </si>
   <si>
+    <t>${Students[0].Address2}</t>
+  </si>
+  <si>
     <t>${Transactions.February.Refund}</t>
+  </si>
+  <si>
+    <t>${Students[0].Grade}</t>
   </si>
   <si>
     <t>March</t>
@@ -768,6 +561,9 @@
     <t>${Transactions.April.Payment.Date}</t>
   </si>
   <si>
+    <t>${Students[0].FormerIep}</t>
+  </si>
+  <si>
     <t>${Transactions.April.Payment.UniPayAmount}</t>
   </si>
   <si>
@@ -795,25 +591,259 @@
     <t>June</t>
   </si>
   <si>
+    <t>${Students[1].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[1].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[1].CurrentIep}</t>
+  </si>
+  <si>
     <t>${Transactions.June.Payment.CheckAmount}</t>
   </si>
   <si>
     <t>${Transactions.June.Payment.CheckNumber}</t>
   </si>
   <si>
+    <t>${Students[1].PaSecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[1].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[1].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[1].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[1].IsSpecialEducation}</t>
+  </si>
+  <si>
     <t>${Transactions.June.Payment.Date}</t>
+  </si>
+  <si>
+    <t>${Students[1].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[1].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[1].FormerIep}</t>
+  </si>
+  <si>
+    <t>${Students[2].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[2].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[2].CurrentIep}</t>
   </si>
   <si>
     <t>${Transactions.June.Payment.UniPayAmount}</t>
   </si>
   <si>
+    <t>${Students[2].PaSecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[2].Address1}</t>
+  </si>
+  <si>
     <t>${Transactions.June.Refund}</t>
   </si>
   <si>
-    <t>Total Paid to Date for 2017-2018 School Year:</t>
+    <t>${Students[2].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[2].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[2].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[2].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[2].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[2].FormerIep}</t>
+  </si>
+  <si>
+    <t>${Students[3].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[3].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[3].CurrentIep}</t>
+  </si>
+  <si>
+    <t>${Students[3].PaSecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[3].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[3].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[3].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[3].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[3].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[3].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[3].FormerIep}</t>
+  </si>
+  <si>
+    <t>${Students[4].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[4].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[4].CurrentIep}</t>
+  </si>
+  <si>
+    <t>${Students[4].PaSecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[4].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[4].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[4].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[4].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[4].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[4].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[4].FormerIep}</t>
+  </si>
+  <si>
+    <t>Total Paid to Date for ${FirstYear}-${SecondYear} School Year:</t>
+  </si>
+  <si>
+    <t>${Students[5].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[5].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[5].CurrentIep}</t>
+  </si>
+  <si>
+    <t>${Students[5].PaSecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[5].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[5].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[5].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[5].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[5].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[5].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[5].FormerIep}</t>
+  </si>
+  <si>
+    <t>${Students[6].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[6].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[6].CurrentIep}</t>
+  </si>
+  <si>
+    <t>${Students[6].PaSecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[6].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[6].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[6].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[6].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[6].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[6].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[6].FormerIep}</t>
+  </si>
+  <si>
+    <t>${Students[7].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[7].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[7].CurrentIep}</t>
+  </si>
+  <si>
+    <t>724-888-7792 x</t>
+  </si>
+  <si>
+    <t>${Students[7].PaSecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[7].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[7].FirstDay}</t>
   </si>
   <si>
     <t>By signing this invoice, I certify under penalty of law that the statements made in this invoice are true and correct and that any amounts set forth as due hereunder related to the School Year indicated</t>
+  </si>
+  <si>
+    <t>${Students[7].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[7].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[7].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[8].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[7].FormerIep}</t>
   </si>
   <si>
     <t>above and not to any prior School Year.  I understand that false statements herein may subject me to criminal prosecution under 18 Pa.C.S. §4904, relating to unsworn falsification to authorities.</t>
@@ -839,9 +869,6 @@
       <t xml:space="preserve">  __________________________________________________________</t>
     </r>
   </si>
-  <si>
-    <t>___________________</t>
-  </si>
 </sst>
 </file>
 
@@ -852,7 +879,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -870,21 +897,20 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FF800000"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
+      <color rgb="FF800000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -894,12 +920,22 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10.0"/>
-      <color rgb="FF800000"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF800000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -909,13 +945,13 @@
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
-      <color rgb="FF800000"/>
+      <sz val="9.0"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="8.0"/>
+      <color rgb="FF800000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -942,6 +978,20 @@
   <borders count="45">
     <border/>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -967,20 +1017,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left/>
@@ -1062,6 +1098,11 @@
       </bottom>
     </border>
     <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1079,6 +1120,20 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD8D8D8"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
     </border>
     <border>
       <left style="thin">
@@ -1101,101 +1156,6 @@
       <bottom style="thin">
         <color rgb="FFEAEAEA"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FFEAEAEA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEAEAEA"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEAEAEA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEAEAEA"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FFEAEAEA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEAEAEA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD8D8D8"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
     </border>
     <border>
       <left style="thin">
@@ -1233,6 +1193,19 @@
       </top>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -1266,6 +1239,39 @@
       </right>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FFEAEAEA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEAEAEA"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEAEAEA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEAEAEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <top/>
       <bottom/>
     </border>
@@ -1273,6 +1279,36 @@
       <right/>
       <top/>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FFEAEAEA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEAEAEA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -1322,81 +1358,102 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="121">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1408,22 +1465,33 @@
     <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1441,136 +1509,113 @@
     <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="10" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="17" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="3" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="21" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="22" fillId="3" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="23" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf borderId="25" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="26" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="28" fillId="3" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="29" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="30" fillId="3" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="31" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="32" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="33" fillId="3" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="34" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="27" fillId="3" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="28" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="35" fillId="3" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="29" fillId="3" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="36" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="30" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="37" fillId="3" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="36" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="31" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="32" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="33" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="38" fillId="3" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="34" fillId="3" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="30" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="35" fillId="3" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="24" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="24" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="33" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="25" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="33" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="36" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="37" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="38" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="39" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1578,37 +1623,46 @@
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="40" fillId="3" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="41" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="42" fillId="3" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="41" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="43" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="44" fillId="3" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="26" fillId="0" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="26" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="6" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1650,8 +1704,8 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="2"/>
@@ -1661,36 +1715,36 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1704,23 +1758,23 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1734,23 +1788,23 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="11" t="s">
-        <v>4</v>
+      <c r="H4" s="7" t="s">
+        <v>5</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1764,21 +1818,23 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -1792,26 +1848,26 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="13" t="s">
-        <v>6</v>
+      <c r="A6" s="15" t="s">
+        <v>8</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16" t="s">
-        <v>8</v>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="M6" s="1"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="18" t="s">
-        <v>9</v>
+      <c r="N6" s="20"/>
+      <c r="O6" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1826,26 +1882,26 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>7</v>
+      <c r="A7" s="21" t="s">
+        <v>16</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16" t="s">
-        <v>10</v>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="18" t="s">
-        <v>11</v>
+      <c r="N7" s="20"/>
+      <c r="O7" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1860,24 +1916,24 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16" t="s">
-        <v>12</v>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="18" t="s">
-        <v>13</v>
+      <c r="N8" s="20"/>
+      <c r="O8" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1893,15 +1949,15 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1921,15 +1977,15 @@
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1949,47 +2005,47 @@
     </row>
     <row r="11" ht="39.0" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="22" t="s">
+      <c r="B11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="C11" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="D11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="E11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="F11" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="25" t="s">
+      <c r="G11" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="26" t="s">
         <v>29</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -2004,49 +2060,49 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="29" t="s">
+      <c r="A12" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="29" t="s">
+      <c r="B12" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="C12" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="29" t="s">
+      <c r="D12" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="29" t="s">
+      <c r="E12" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="31" t="s">
+      <c r="F12" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="54" t="str">
+      <c r="G12" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="42" t="str">
         <f t="shared" ref="O12:O13" si="1">ROUND(SUMIF(B12:M12,"&gt;0")*N12/12,2)</f>
         <v>#VALUE!</v>
       </c>
@@ -2063,49 +2119,49 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="M13" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="N13" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="O13" s="54" t="str">
+      <c r="O13" s="42" t="str">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
@@ -2161,12 +2217,12 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="67" t="s">
-        <v>86</v>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="47" t="s">
+        <v>69</v>
       </c>
-      <c r="O15" s="73" t="str">
+      <c r="O15" s="49" t="str">
         <f>SUM(O12:O13)</f>
         <v>#VALUE!</v>
       </c>
@@ -2215,22 +2271,22 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="74" t="s">
-        <v>100</v>
+      <c r="E17" s="51" t="s">
+        <v>74</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="8" t="s">
-        <v>103</v>
+      <c r="G17" s="18" t="s">
+        <v>80</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>103</v>
+      <c r="H17" s="18" t="s">
+        <v>80</v>
       </c>
-      <c r="I17" s="74" t="s">
-        <v>104</v>
+      <c r="I17" s="51" t="s">
+        <v>81</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="74" t="s">
-        <v>105</v>
+      <c r="K17" s="51" t="s">
+        <v>83</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2251,29 +2307,29 @@
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="75" t="s">
-        <v>108</v>
+      <c r="C18" s="58" t="s">
+        <v>84</v>
       </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="76" t="s">
-        <v>115</v>
+      <c r="D18" s="58"/>
+      <c r="E18" s="60" t="s">
+        <v>88</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="8" t="s">
-        <v>51</v>
+      <c r="F18" s="53"/>
+      <c r="G18" s="18" t="s">
+        <v>75</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>119</v>
+      <c r="H18" s="18" t="s">
+        <v>91</v>
       </c>
-      <c r="I18" s="76" t="s">
-        <v>120</v>
+      <c r="I18" s="60" t="s">
+        <v>92</v>
       </c>
-      <c r="J18" s="77"/>
-      <c r="K18" s="76" t="s">
-        <v>121</v>
+      <c r="J18" s="62"/>
+      <c r="K18" s="60" t="s">
+        <v>93</v>
       </c>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2291,29 +2347,29 @@
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="78" t="s">
-        <v>127</v>
+      <c r="C19" s="64" t="s">
+        <v>94</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81" t="s">
-        <v>139</v>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="69" t="s">
+        <v>96</v>
       </c>
-      <c r="G19" s="82" t="s">
-        <v>143</v>
+      <c r="G19" s="70" t="s">
+        <v>98</v>
       </c>
-      <c r="H19" s="83" t="s">
-        <v>147</v>
+      <c r="H19" s="73" t="s">
+        <v>99</v>
       </c>
-      <c r="I19" s="84"/>
-      <c r="J19" s="85" t="s">
-        <v>156</v>
+      <c r="I19" s="74"/>
+      <c r="J19" s="75" t="s">
+        <v>101</v>
       </c>
-      <c r="K19" s="84"/>
-      <c r="L19" s="86" t="s">
-        <v>160</v>
+      <c r="K19" s="74"/>
+      <c r="L19" s="78" t="s">
+        <v>102</v>
       </c>
-      <c r="M19" s="87"/>
+      <c r="M19" s="79"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -2332,28 +2388,28 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="89" t="s">
-        <v>181</v>
+      <c r="E20" s="80"/>
+      <c r="F20" s="81" t="s">
+        <v>106</v>
       </c>
-      <c r="G20" s="90" t="s">
-        <v>182</v>
+      <c r="G20" s="82" t="s">
+        <v>107</v>
       </c>
-      <c r="H20" s="91" t="s">
-        <v>183</v>
+      <c r="H20" s="83" t="s">
+        <v>108</v>
       </c>
-      <c r="I20" s="92"/>
-      <c r="J20" s="93" t="s">
-        <v>184</v>
+      <c r="I20" s="87"/>
+      <c r="J20" s="88" t="s">
+        <v>110</v>
       </c>
-      <c r="K20" s="92"/>
-      <c r="L20" s="94" t="s">
-        <v>185</v>
+      <c r="K20" s="87"/>
+      <c r="L20" s="81" t="s">
+        <v>111</v>
       </c>
-      <c r="M20" s="95"/>
+      <c r="M20" s="89"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -2371,29 +2427,29 @@
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="74" t="s">
-        <v>186</v>
+      <c r="C21" s="51" t="s">
+        <v>112</v>
       </c>
-      <c r="D21" s="74"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="89" t="s">
-        <v>187</v>
+      <c r="D21" s="51"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81" t="s">
+        <v>113</v>
       </c>
-      <c r="G21" s="90" t="s">
-        <v>188</v>
+      <c r="G21" s="82" t="s">
+        <v>114</v>
       </c>
-      <c r="H21" s="91" t="s">
-        <v>189</v>
+      <c r="H21" s="83" t="s">
+        <v>115</v>
       </c>
-      <c r="I21" s="92"/>
-      <c r="J21" s="93" t="s">
-        <v>190</v>
+      <c r="I21" s="87"/>
+      <c r="J21" s="88" t="s">
+        <v>116</v>
       </c>
-      <c r="K21" s="92"/>
-      <c r="L21" s="94" t="s">
-        <v>191</v>
+      <c r="K21" s="87"/>
+      <c r="L21" s="81" t="s">
+        <v>117</v>
       </c>
-      <c r="M21" s="95"/>
+      <c r="M21" s="89"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -2411,29 +2467,29 @@
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="74" t="s">
-        <v>192</v>
+      <c r="C22" s="51" t="s">
+        <v>118</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="89" t="s">
-        <v>193</v>
+      <c r="D22" s="51"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="81" t="s">
+        <v>119</v>
       </c>
-      <c r="G22" s="90" t="s">
-        <v>194</v>
+      <c r="G22" s="82" t="s">
+        <v>121</v>
       </c>
-      <c r="H22" s="91" t="s">
-        <v>195</v>
+      <c r="H22" s="83" t="s">
+        <v>122</v>
       </c>
-      <c r="I22" s="92"/>
-      <c r="J22" s="93" t="s">
-        <v>196</v>
+      <c r="I22" s="87"/>
+      <c r="J22" s="88" t="s">
+        <v>123</v>
       </c>
-      <c r="K22" s="92"/>
-      <c r="L22" s="94" t="s">
-        <v>197</v>
+      <c r="K22" s="87"/>
+      <c r="L22" s="81" t="s">
+        <v>124</v>
       </c>
-      <c r="M22" s="95"/>
+      <c r="M22" s="89"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2451,31 +2507,31 @@
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="74" t="s">
-        <v>198</v>
+      <c r="C23" s="51" t="s">
+        <v>125</v>
       </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="89" t="s">
-        <v>199</v>
+      <c r="D23" s="51"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="81" t="s">
+        <v>126</v>
       </c>
-      <c r="G23" s="90" t="s">
-        <v>200</v>
+      <c r="G23" s="82" t="s">
+        <v>127</v>
       </c>
-      <c r="H23" s="91" t="s">
-        <v>201</v>
+      <c r="H23" s="83" t="s">
+        <v>128</v>
       </c>
-      <c r="I23" s="92"/>
-      <c r="J23" s="93" t="s">
-        <v>202</v>
+      <c r="I23" s="87"/>
+      <c r="J23" s="88" t="s">
+        <v>129</v>
       </c>
-      <c r="K23" s="92"/>
-      <c r="L23" s="94" t="s">
-        <v>203</v>
+      <c r="K23" s="87"/>
+      <c r="L23" s="81" t="s">
+        <v>130</v>
       </c>
-      <c r="M23" s="95"/>
+      <c r="M23" s="89"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="96"/>
+      <c r="O23" s="92"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -2491,29 +2547,29 @@
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="74" t="s">
-        <v>204</v>
+      <c r="C24" s="51" t="s">
+        <v>133</v>
       </c>
-      <c r="D24" s="74"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89" t="s">
-        <v>205</v>
+      <c r="D24" s="51"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="81" t="s">
+        <v>134</v>
       </c>
-      <c r="G24" s="90" t="s">
-        <v>206</v>
+      <c r="G24" s="82" t="s">
+        <v>135</v>
       </c>
-      <c r="H24" s="91" t="s">
-        <v>207</v>
+      <c r="H24" s="83" t="s">
+        <v>136</v>
       </c>
-      <c r="I24" s="92"/>
-      <c r="J24" s="93" t="s">
-        <v>208</v>
+      <c r="I24" s="87"/>
+      <c r="J24" s="88" t="s">
+        <v>137</v>
       </c>
-      <c r="K24" s="92"/>
-      <c r="L24" s="94" t="s">
-        <v>209</v>
+      <c r="K24" s="87"/>
+      <c r="L24" s="81" t="s">
+        <v>138</v>
       </c>
-      <c r="M24" s="95"/>
+      <c r="M24" s="89"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2531,29 +2587,29 @@
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="97" t="s">
-        <v>210</v>
+      <c r="C25" s="94" t="s">
+        <v>139</v>
       </c>
-      <c r="D25" s="74"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89" t="s">
-        <v>211</v>
+      <c r="D25" s="51"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="81" t="s">
+        <v>140</v>
       </c>
-      <c r="G25" s="90" t="s">
-        <v>212</v>
+      <c r="G25" s="82" t="s">
+        <v>141</v>
       </c>
-      <c r="H25" s="91" t="s">
-        <v>213</v>
+      <c r="H25" s="83" t="s">
+        <v>142</v>
       </c>
-      <c r="I25" s="92"/>
-      <c r="J25" s="93" t="s">
-        <v>214</v>
+      <c r="I25" s="87"/>
+      <c r="J25" s="88" t="s">
+        <v>143</v>
       </c>
-      <c r="K25" s="92"/>
-      <c r="L25" s="94" t="s">
-        <v>215</v>
+      <c r="K25" s="87"/>
+      <c r="L25" s="81" t="s">
+        <v>144</v>
       </c>
-      <c r="M25" s="95"/>
+      <c r="M25" s="89"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -2571,29 +2627,29 @@
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="74" t="s">
-        <v>216</v>
+      <c r="C26" s="51" t="s">
+        <v>145</v>
       </c>
-      <c r="D26" s="74"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89" t="s">
-        <v>217</v>
+      <c r="D26" s="51"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="81" t="s">
+        <v>146</v>
       </c>
-      <c r="G26" s="90" t="s">
-        <v>218</v>
+      <c r="G26" s="82" t="s">
+        <v>147</v>
       </c>
-      <c r="H26" s="91" t="s">
-        <v>219</v>
+      <c r="H26" s="83" t="s">
+        <v>148</v>
       </c>
-      <c r="I26" s="92"/>
-      <c r="J26" s="93" t="s">
-        <v>220</v>
+      <c r="I26" s="87"/>
+      <c r="J26" s="88" t="s">
+        <v>149</v>
       </c>
-      <c r="K26" s="92"/>
-      <c r="L26" s="94" t="s">
-        <v>221</v>
+      <c r="K26" s="87"/>
+      <c r="L26" s="81" t="s">
+        <v>151</v>
       </c>
-      <c r="M26" s="95"/>
+      <c r="M26" s="89"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2611,29 +2667,29 @@
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="74" t="s">
-        <v>222</v>
+      <c r="C27" s="51" t="s">
+        <v>153</v>
       </c>
-      <c r="D27" s="74"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89" t="s">
-        <v>223</v>
+      <c r="D27" s="51"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="81" t="s">
+        <v>154</v>
       </c>
-      <c r="G27" s="90" t="s">
-        <v>224</v>
+      <c r="G27" s="82" t="s">
+        <v>155</v>
       </c>
-      <c r="H27" s="91" t="s">
-        <v>225</v>
+      <c r="H27" s="83" t="s">
+        <v>156</v>
       </c>
-      <c r="I27" s="92"/>
-      <c r="J27" s="93" t="s">
-        <v>226</v>
+      <c r="I27" s="87"/>
+      <c r="J27" s="88" t="s">
+        <v>157</v>
       </c>
-      <c r="K27" s="92"/>
-      <c r="L27" s="94" t="s">
-        <v>227</v>
+      <c r="K27" s="87"/>
+      <c r="L27" s="81" t="s">
+        <v>158</v>
       </c>
-      <c r="M27" s="95"/>
+      <c r="M27" s="89"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -2651,29 +2707,29 @@
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="74" t="s">
-        <v>228</v>
+      <c r="C28" s="51" t="s">
+        <v>159</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89" t="s">
-        <v>229</v>
+      <c r="D28" s="51"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="81" t="s">
+        <v>160</v>
       </c>
-      <c r="G28" s="90" t="s">
-        <v>230</v>
+      <c r="G28" s="82" t="s">
+        <v>161</v>
       </c>
-      <c r="H28" s="91" t="s">
-        <v>231</v>
+      <c r="H28" s="83" t="s">
+        <v>162</v>
       </c>
-      <c r="I28" s="92"/>
-      <c r="J28" s="93" t="s">
-        <v>232</v>
+      <c r="I28" s="87"/>
+      <c r="J28" s="88" t="s">
+        <v>164</v>
       </c>
-      <c r="K28" s="92"/>
-      <c r="L28" s="94" t="s">
-        <v>233</v>
+      <c r="K28" s="87"/>
+      <c r="L28" s="81" t="s">
+        <v>165</v>
       </c>
-      <c r="M28" s="95"/>
+      <c r="M28" s="89"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2691,29 +2747,29 @@
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="74" t="s">
-        <v>234</v>
+      <c r="C29" s="51" t="s">
+        <v>166</v>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89" t="s">
-        <v>235</v>
+      <c r="D29" s="51"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="81" t="s">
+        <v>167</v>
       </c>
-      <c r="G29" s="90" t="s">
-        <v>236</v>
+      <c r="G29" s="82" t="s">
+        <v>168</v>
       </c>
-      <c r="H29" s="91" t="s">
-        <v>237</v>
+      <c r="H29" s="83" t="s">
+        <v>169</v>
       </c>
-      <c r="I29" s="92"/>
-      <c r="J29" s="93" t="s">
-        <v>238</v>
+      <c r="I29" s="87"/>
+      <c r="J29" s="88" t="s">
+        <v>170</v>
       </c>
-      <c r="K29" s="92"/>
-      <c r="L29" s="94" t="s">
-        <v>239</v>
+      <c r="K29" s="87"/>
+      <c r="L29" s="81" t="s">
+        <v>171</v>
       </c>
-      <c r="M29" s="95"/>
+      <c r="M29" s="89"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -2731,29 +2787,29 @@
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="76" t="s">
-        <v>240</v>
+      <c r="C30" s="60" t="s">
+        <v>172</v>
       </c>
-      <c r="D30" s="76"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="99" t="s">
-        <v>241</v>
+      <c r="D30" s="60"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="102" t="s">
+        <v>176</v>
       </c>
-      <c r="G30" s="100" t="s">
-        <v>242</v>
+      <c r="G30" s="103" t="s">
+        <v>177</v>
       </c>
-      <c r="H30" s="101" t="s">
-        <v>243</v>
+      <c r="H30" s="104" t="s">
+        <v>183</v>
       </c>
-      <c r="I30" s="102"/>
-      <c r="J30" s="103" t="s">
-        <v>244</v>
+      <c r="I30" s="105"/>
+      <c r="J30" s="106" t="s">
+        <v>190</v>
       </c>
-      <c r="K30" s="102"/>
-      <c r="L30" s="104" t="s">
-        <v>245</v>
+      <c r="K30" s="105"/>
+      <c r="L30" s="107" t="s">
+        <v>193</v>
       </c>
-      <c r="M30" s="105"/>
+      <c r="M30" s="108"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -2773,24 +2829,24 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="107">
+      <c r="E31" s="109"/>
+      <c r="F31" s="110">
         <f>SUM(F19:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106">
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109">
         <f>SUM(J19:J30)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="106"/>
-      <c r="L31" s="106">
+      <c r="K31" s="109"/>
+      <c r="L31" s="109">
         <f>SUM(L19:L30)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="96"/>
+      <c r="M31" s="92"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -2835,10 +2891,14 @@
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="B33" s="111" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="108"/>
+      <c r="E33" s="112"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2847,10 +2907,10 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="67" t="s">
-        <v>246</v>
+      <c r="N33" s="113" t="s">
+        <v>222</v>
       </c>
-      <c r="O33" s="109">
+      <c r="O33" s="114">
         <f>ROUND(F31+J31-L31,2)</f>
         <v>0</v>
       </c>
@@ -2866,12 +2926,14 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" ht="19.5" customHeight="1">
+    <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="108"/>
+      <c r="E34" s="112"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -2897,7 +2959,9 @@
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="C35" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2908,11 +2972,11 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="67" t="str">
+      <c r="N35" s="47" t="str">
         <f>IF(O15-O33&gt;=0,"Net Due to Charter School:","Net Due to School District:")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O35" s="110" t="str">
+      <c r="O35" s="115" t="str">
         <f>ROUND(ABS(O15-O33),2)</f>
         <v>#VALUE!</v>
       </c>
@@ -2931,7 +2995,9 @@
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2959,7 +3025,9 @@
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="C37" s="10" t="s">
+        <v>248</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2985,22 +3053,22 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="111" t="s">
-        <v>247</v>
+      <c r="A38" s="116" t="s">
+        <v>252</v>
       </c>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="111"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="111"/>
-      <c r="M38" s="111"/>
-      <c r="N38" s="111"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -3015,22 +3083,22 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="111" t="s">
-        <v>248</v>
+      <c r="A39" s="116" t="s">
+        <v>258</v>
       </c>
-      <c r="B39" s="111"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="111"/>
-      <c r="K39" s="111"/>
-      <c r="L39" s="111"/>
-      <c r="M39" s="111"/>
-      <c r="N39" s="111"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="116"/>
+      <c r="M39" s="116"/>
+      <c r="N39" s="116"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -3045,22 +3113,22 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="111" t="s">
-        <v>249</v>
+      <c r="A40" s="116" t="s">
+        <v>259</v>
       </c>
-      <c r="B40" s="111"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="111"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116"/>
+      <c r="K40" s="116"/>
+      <c r="L40" s="116"/>
+      <c r="M40" s="116"/>
+      <c r="N40" s="116"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -3075,20 +3143,20 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="112"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="112"/>
-      <c r="K41" s="112"/>
-      <c r="L41" s="112"/>
-      <c r="M41" s="112"/>
-      <c r="N41" s="112"/>
+      <c r="A41" s="117"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="117"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="117"/>
+      <c r="M41" s="117"/>
+      <c r="N41" s="117"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -3103,22 +3171,20 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="112"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="113" t="s">
-        <v>9</v>
-      </c>
-      <c r="K42" s="112"/>
-      <c r="L42" s="112"/>
-      <c r="M42" s="112"/>
-      <c r="N42" s="112"/>
+      <c r="A42" s="117"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="117"/>
+      <c r="J42" s="118"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="117"/>
+      <c r="M42" s="117"/>
+      <c r="N42" s="117"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -3133,23 +3199,23 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>250</v>
+      <c r="A43" s="6" t="s">
+        <v>260</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="114" t="s">
-        <v>119</v>
+      <c r="I43" s="119" t="s">
+        <v>91</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>251</v>
+      <c r="J43" s="120" t="s">
+        <v>15</v>
       </c>
-      <c r="K43" s="1"/>
+      <c r="K43" s="27"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -29997,16 +30063,17 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
-        <v>0</v>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="8" t="s">
+        <v>2</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="J1" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -30025,18 +30092,19 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
-        <v>1</v>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -30054,79 +30122,82 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
-        <v>2</v>
+      <c r="A3" s="1"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="16" t="s">
+        <v>1</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="11" t="s">
-        <v>5</v>
+      <c r="A4" s="18"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="13" t="s">
-        <v>6</v>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -30145,19 +30216,17 @@
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="13" t="s">
-        <v>7</v>
+      <c r="B6" s="21" t="s">
+        <v>8</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="18" t="s">
-        <v>9</v>
+      <c r="F6" s="23"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="J6" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -30177,16 +30246,22 @@
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="B7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -30205,24 +30280,15 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26" t="s">
-        <v>45</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -30241,25 +30307,23 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37" t="s">
-        <v>46</v>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="29" t="s">
+        <v>36</v>
       </c>
-      <c r="H9" s="38" t="s">
-        <v>47</v>
+      <c r="G9" s="33" t="s">
+        <v>37</v>
       </c>
-      <c r="I9" s="38" t="s">
-        <v>48</v>
+      <c r="H9" s="34"/>
+      <c r="I9" s="37" t="s">
+        <v>39</v>
       </c>
-      <c r="J9" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>50</v>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33" t="s">
+        <v>53</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -30279,33 +30343,25 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
-        <v>51</v>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="46" t="s">
+        <v>68</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>52</v>
+      <c r="H10" s="48" t="s">
+        <v>70</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>53</v>
+      <c r="I10" s="48" t="s">
+        <v>71</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="26" t="s">
-        <v>54</v>
+      <c r="J10" s="46" t="s">
+        <v>72</v>
       </c>
-      <c r="G10" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>45</v>
+      <c r="K10" s="50" t="s">
+        <v>73</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -30324,1163 +30380,1197 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="39" t="s">
-        <v>58</v>
+      <c r="A11" s="1"/>
+      <c r="B11" s="46" t="s">
+        <v>75</v>
       </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46" t="s">
-        <v>59</v>
+      <c r="C11" s="40" t="s">
+        <v>76</v>
       </c>
-      <c r="J11" s="39" t="s">
-        <v>60</v>
+      <c r="D11" s="40" t="s">
+        <v>77</v>
       </c>
-      <c r="K11" s="39" t="s">
-        <v>61</v>
+      <c r="E11" s="43"/>
+      <c r="F11" s="33" t="s">
+        <v>78</v>
       </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
+      <c r="G11" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49" t="s">
-        <v>62</v>
+      <c r="A12" s="53"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="50" t="s">
+        <v>86</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51" t="s">
-        <v>63</v>
+      <c r="H12" s="57"/>
+      <c r="I12" s="59" t="s">
+        <v>87</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="51" t="s">
-        <v>64</v>
+      <c r="J12" s="50" t="s">
+        <v>89</v>
       </c>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
+      <c r="K12" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="55">
+      <c r="A13" s="53"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="68"/>
+      <c r="F13" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="53"/>
+      <c r="B14" s="76">
         <v>1.0</v>
       </c>
-      <c r="C13" s="56" t="s">
-        <v>65</v>
+      <c r="C14" s="77" t="s">
+        <v>103</v>
       </c>
-      <c r="D13" s="57" t="s">
-        <v>66</v>
+      <c r="D14" s="84" t="s">
+        <v>104</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61" t="s">
-        <v>81</v>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="90" t="s">
+        <v>109</v>
       </c>
-      <c r="I13" s="61" t="s">
-        <v>82</v>
+      <c r="H14" s="91" t="s">
+        <v>120</v>
       </c>
-      <c r="J13" s="62" t="s">
-        <v>83</v>
+      <c r="I14" s="91" t="s">
+        <v>131</v>
       </c>
-      <c r="K13" s="63"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="57" t="s">
-        <v>84</v>
+      <c r="J14" s="90" t="s">
+        <v>132</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="66" t="s">
-        <v>85</v>
+      <c r="K14" s="93"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="53"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="84" t="s">
+        <v>150</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="51" t="s">
-        <v>87</v>
+      <c r="E15" s="85"/>
+      <c r="F15" s="96" t="s">
+        <v>152</v>
       </c>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="41"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49" t="s">
-        <v>88</v>
+      <c r="A16" s="53"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="53"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="67" t="s">
+        <v>173</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51" t="s">
-        <v>89</v>
+      <c r="E17" s="68"/>
+      <c r="F17" s="71" t="s">
+        <v>174</v>
       </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="51" t="s">
-        <v>90</v>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="71" t="s">
+        <v>175</v>
       </c>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="41"/>
-      <c r="B17" s="55">
-        <f>B13+1</f>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="53"/>
+      <c r="B18" s="76">
+        <f>B14+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="56" t="s">
-        <v>91</v>
+      <c r="C18" s="77" t="s">
+        <v>178</v>
       </c>
-      <c r="D17" s="57" t="s">
-        <v>92</v>
+      <c r="D18" s="84" t="s">
+        <v>179</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="61" t="s">
-        <v>93</v>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="90" t="s">
+        <v>109</v>
       </c>
-      <c r="I17" s="61" t="s">
-        <v>94</v>
+      <c r="H18" s="91" t="s">
+        <v>180</v>
       </c>
-      <c r="J17" s="62" t="s">
-        <v>95</v>
+      <c r="I18" s="91" t="s">
+        <v>181</v>
       </c>
-      <c r="K17" s="63"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="41"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="57" t="s">
-        <v>96</v>
+      <c r="J18" s="90" t="s">
+        <v>182</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="66" t="s">
-        <v>97</v>
+      <c r="K18" s="93"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="53"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="84" t="s">
+        <v>184</v>
       </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="51" t="s">
-        <v>98</v>
+      <c r="E19" s="85"/>
+      <c r="F19" s="96" t="s">
+        <v>185</v>
       </c>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="41"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="53"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="41"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49" t="s">
-        <v>99</v>
+      <c r="A20" s="53"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="53"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="67" t="s">
+        <v>187</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51" t="s">
-        <v>101</v>
+      <c r="E21" s="68"/>
+      <c r="F21" s="71" t="s">
+        <v>188</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="51" t="s">
-        <v>102</v>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="71" t="s">
+        <v>189</v>
       </c>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="41"/>
-      <c r="B21" s="55">
-        <f>B17+1</f>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="A22" s="53"/>
+      <c r="B22" s="76">
+        <f>B18+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="56" t="s">
-        <v>106</v>
+      <c r="C22" s="77" t="s">
+        <v>191</v>
       </c>
-      <c r="D21" s="57" t="s">
-        <v>107</v>
+      <c r="D22" s="84" t="s">
+        <v>192</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="61" t="s">
+      <c r="E22" s="85"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="I21" s="61" t="s">
-        <v>110</v>
+      <c r="H22" s="91" t="s">
+        <v>194</v>
       </c>
-      <c r="J21" s="62" t="s">
-        <v>111</v>
+      <c r="I22" s="91" t="s">
+        <v>195</v>
       </c>
-      <c r="K21" s="63"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="41"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="57" t="s">
-        <v>112</v>
+      <c r="J22" s="90" t="s">
+        <v>196</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="66" t="s">
-        <v>113</v>
+      <c r="K22" s="93"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="A23" s="53"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="84" t="s">
+        <v>197</v>
       </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="51" t="s">
-        <v>114</v>
+      <c r="E23" s="85"/>
+      <c r="F23" s="96" t="s">
+        <v>198</v>
       </c>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="41"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="41"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49" t="s">
-        <v>116</v>
+      <c r="A24" s="53"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="A25" s="53"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="67" t="s">
+        <v>200</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51" t="s">
-        <v>117</v>
+      <c r="E25" s="68"/>
+      <c r="F25" s="71" t="s">
+        <v>201</v>
       </c>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="51" t="s">
-        <v>118</v>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="71" t="s">
+        <v>202</v>
       </c>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="41"/>
-      <c r="B25" s="55">
-        <f>B21+1</f>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="A26" s="53"/>
+      <c r="B26" s="76">
+        <f>B22+1</f>
         <v>4</v>
       </c>
-      <c r="C25" s="56" t="s">
-        <v>122</v>
+      <c r="C26" s="77" t="s">
+        <v>203</v>
       </c>
-      <c r="D25" s="57" t="s">
-        <v>123</v>
+      <c r="D26" s="84" t="s">
+        <v>204</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="61" t="s">
-        <v>124</v>
+      <c r="E26" s="85"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="90" t="s">
+        <v>109</v>
       </c>
-      <c r="I25" s="61" t="s">
-        <v>125</v>
+      <c r="H26" s="91" t="s">
+        <v>205</v>
       </c>
-      <c r="J25" s="62" t="s">
-        <v>126</v>
+      <c r="I26" s="91" t="s">
+        <v>206</v>
       </c>
-      <c r="K25" s="63"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="41"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="57" t="s">
-        <v>128</v>
+      <c r="J26" s="90" t="s">
+        <v>207</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="66" t="s">
-        <v>129</v>
+      <c r="K26" s="93"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+    </row>
+    <row r="27" ht="12.75" customHeight="1">
+      <c r="A27" s="53"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="84" t="s">
+        <v>208</v>
       </c>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="51" t="s">
-        <v>130</v>
+      <c r="E27" s="85"/>
+      <c r="F27" s="96" t="s">
+        <v>209</v>
       </c>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="41"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="41"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="49" t="s">
-        <v>131</v>
+      <c r="A28" s="53"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+    </row>
+    <row r="29" ht="12.75" customHeight="1">
+      <c r="A29" s="53"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="67" t="s">
+        <v>211</v>
       </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="51" t="s">
-        <v>132</v>
+      <c r="E29" s="68"/>
+      <c r="F29" s="71" t="s">
+        <v>212</v>
       </c>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="51" t="s">
-        <v>133</v>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="71" t="s">
+        <v>213</v>
       </c>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
-    </row>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="41"/>
-      <c r="B29" s="55">
-        <f>B25+1</f>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="A30" s="53"/>
+      <c r="B30" s="76">
+        <f>B26+1</f>
         <v>5</v>
       </c>
-      <c r="C29" s="56" t="s">
-        <v>134</v>
+      <c r="C30" s="77" t="s">
+        <v>214</v>
       </c>
-      <c r="D29" s="57" t="s">
-        <v>135</v>
+      <c r="D30" s="84" t="s">
+        <v>215</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="61" t="s">
-        <v>136</v>
+      <c r="E30" s="85"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="90" t="s">
+        <v>109</v>
       </c>
-      <c r="I29" s="61" t="s">
-        <v>137</v>
+      <c r="H30" s="91" t="s">
+        <v>216</v>
       </c>
-      <c r="J29" s="62" t="s">
-        <v>138</v>
+      <c r="I30" s="91" t="s">
+        <v>217</v>
       </c>
-      <c r="K29" s="63"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="41"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="57" t="s">
-        <v>140</v>
+      <c r="J30" s="90" t="s">
+        <v>218</v>
       </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="66" t="s">
-        <v>141</v>
+      <c r="K30" s="93"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="A31" s="53"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="84" t="s">
+        <v>219</v>
       </c>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="51" t="s">
-        <v>142</v>
+      <c r="E31" s="85"/>
+      <c r="F31" s="96" t="s">
+        <v>220</v>
       </c>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="41"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="41"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49" t="s">
-        <v>144</v>
+      <c r="A32" s="53"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
+      <c r="A33" s="53"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="67" t="s">
+        <v>223</v>
       </c>
-      <c r="E32" s="50"/>
-      <c r="F32" s="51" t="s">
-        <v>145</v>
+      <c r="E33" s="68"/>
+      <c r="F33" s="71" t="s">
+        <v>224</v>
       </c>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="51" t="s">
-        <v>146</v>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="71" t="s">
+        <v>225</v>
       </c>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
-    </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="41"/>
-      <c r="B33" s="55">
-        <f>B29+1</f>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="A34" s="53"/>
+      <c r="B34" s="76">
+        <f>B30+1</f>
         <v>6</v>
       </c>
-      <c r="C33" s="56" t="s">
-        <v>148</v>
+      <c r="C34" s="77" t="s">
+        <v>226</v>
       </c>
-      <c r="D33" s="57" t="s">
-        <v>149</v>
+      <c r="D34" s="84" t="s">
+        <v>227</v>
       </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="61" t="s">
-        <v>150</v>
+      <c r="E34" s="85"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="90" t="s">
+        <v>109</v>
       </c>
-      <c r="I33" s="61" t="s">
-        <v>151</v>
+      <c r="H34" s="91" t="s">
+        <v>228</v>
       </c>
-      <c r="J33" s="62" t="s">
-        <v>152</v>
+      <c r="I34" s="91" t="s">
+        <v>229</v>
       </c>
-      <c r="K33" s="63"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="41"/>
-    </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="41"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="57" t="s">
-        <v>153</v>
+      <c r="J34" s="90" t="s">
+        <v>230</v>
       </c>
-      <c r="E34" s="58"/>
-      <c r="F34" s="66" t="s">
-        <v>154</v>
+      <c r="K34" s="93"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="53"/>
+    </row>
+    <row r="35" ht="12.75" customHeight="1">
+      <c r="A35" s="53"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="84" t="s">
+        <v>231</v>
       </c>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="51" t="s">
-        <v>155</v>
+      <c r="E35" s="85"/>
+      <c r="F35" s="96" t="s">
+        <v>232</v>
       </c>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="41"/>
-    </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="41"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="41"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="53"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="41"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49" t="s">
-        <v>157</v>
+      <c r="A36" s="53"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53"/>
+    </row>
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="A37" s="53"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="67" t="s">
+        <v>234</v>
       </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51" t="s">
-        <v>158</v>
+      <c r="E37" s="68"/>
+      <c r="F37" s="71" t="s">
+        <v>235</v>
       </c>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="51" t="s">
-        <v>159</v>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="71" t="s">
+        <v>236</v>
       </c>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="41"/>
-    </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="41"/>
-      <c r="B37" s="55">
-        <f>B33+1</f>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="53"/>
+    </row>
+    <row r="38" ht="12.75" customHeight="1">
+      <c r="A38" s="53"/>
+      <c r="B38" s="76">
+        <f>B34+1</f>
         <v>7</v>
       </c>
-      <c r="C37" s="56" t="s">
-        <v>161</v>
+      <c r="C38" s="77" t="s">
+        <v>237</v>
       </c>
-      <c r="D37" s="57" t="s">
-        <v>162</v>
+      <c r="D38" s="84" t="s">
+        <v>238</v>
       </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="61" t="s">
-        <v>163</v>
+      <c r="E38" s="85"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="90" t="s">
+        <v>109</v>
       </c>
-      <c r="I37" s="61" t="s">
-        <v>164</v>
+      <c r="H38" s="91" t="s">
+        <v>239</v>
       </c>
-      <c r="J37" s="62" t="s">
-        <v>165</v>
+      <c r="I38" s="91" t="s">
+        <v>240</v>
       </c>
-      <c r="K37" s="63"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="41"/>
-      <c r="Z37" s="41"/>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="41"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="57" t="s">
-        <v>166</v>
+      <c r="J38" s="90" t="s">
+        <v>241</v>
       </c>
-      <c r="E38" s="58"/>
-      <c r="F38" s="66" t="s">
-        <v>167</v>
+      <c r="K38" s="93"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="53"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="53"/>
+      <c r="Z38" s="53"/>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="A39" s="53"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="84" t="s">
+        <v>242</v>
       </c>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="51" t="s">
-        <v>168</v>
+      <c r="E39" s="85"/>
+      <c r="F39" s="96" t="s">
+        <v>243</v>
       </c>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="41"/>
-      <c r="W38" s="41"/>
-      <c r="X38" s="41"/>
-      <c r="Y38" s="41"/>
-      <c r="Z38" s="41"/>
-    </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="41"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="41"/>
-      <c r="Z39" s="41"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="71" t="s">
+        <v>244</v>
+      </c>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="53"/>
+      <c r="W39" s="53"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="41"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49" t="s">
-        <v>169</v>
+      <c r="A40" s="53"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="53"/>
+      <c r="V40" s="53"/>
+      <c r="W40" s="53"/>
+      <c r="X40" s="53"/>
+      <c r="Y40" s="53"/>
+      <c r="Z40" s="53"/>
+    </row>
+    <row r="41" ht="12.75" customHeight="1">
+      <c r="A41" s="53"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="67" t="s">
+        <v>245</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="51" t="s">
-        <v>170</v>
+      <c r="E41" s="68"/>
+      <c r="F41" s="71" t="s">
+        <v>246</v>
       </c>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="51" t="s">
-        <v>171</v>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="71" t="s">
+        <v>247</v>
       </c>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="41"/>
-      <c r="W40" s="41"/>
-      <c r="X40" s="41"/>
-      <c r="Y40" s="41"/>
-      <c r="Z40" s="41"/>
-    </row>
-    <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="41"/>
-      <c r="B41" s="55">
-        <f>B37+1</f>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="53"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="53"/>
+      <c r="V41" s="53"/>
+      <c r="W41" s="53"/>
+      <c r="X41" s="53"/>
+      <c r="Y41" s="53"/>
+      <c r="Z41" s="53"/>
+    </row>
+    <row r="42" ht="12.75" customHeight="1">
+      <c r="A42" s="53"/>
+      <c r="B42" s="76">
+        <f>B38+1</f>
         <v>8</v>
       </c>
-      <c r="C41" s="56" t="s">
-        <v>173</v>
+      <c r="C42" s="77" t="s">
+        <v>249</v>
       </c>
-      <c r="D41" s="57" t="s">
-        <v>174</v>
+      <c r="D42" s="84" t="s">
+        <v>250</v>
       </c>
-      <c r="E41" s="58"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="61" t="s">
-        <v>175</v>
+      <c r="E42" s="85"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="90" t="s">
+        <v>109</v>
       </c>
-      <c r="I41" s="61" t="s">
-        <v>176</v>
+      <c r="H42" s="91" t="s">
+        <v>251</v>
       </c>
-      <c r="J41" s="62" t="s">
-        <v>177</v>
+      <c r="I42" s="91" t="s">
+        <v>253</v>
       </c>
-      <c r="K41" s="63"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="41"/>
-      <c r="V41" s="41"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="41"/>
-      <c r="Y41" s="41"/>
-      <c r="Z41" s="41"/>
-    </row>
-    <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="41"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="57" t="s">
-        <v>178</v>
+      <c r="J42" s="90" t="s">
+        <v>254</v>
       </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="66" t="s">
-        <v>179</v>
+      <c r="K42" s="93"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="53"/>
+    </row>
+    <row r="43" ht="12.75" customHeight="1">
+      <c r="A43" s="53"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="84" t="s">
+        <v>255</v>
       </c>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="51" t="s">
-        <v>180</v>
+      <c r="E43" s="85"/>
+      <c r="F43" s="96" t="s">
+        <v>256</v>
       </c>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="41"/>
-      <c r="W42" s="41"/>
-      <c r="X42" s="41"/>
-      <c r="Y42" s="41"/>
-      <c r="Z42" s="41"/>
-    </row>
-    <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="41"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="41"/>
-      <c r="T43" s="41"/>
-      <c r="U43" s="41"/>
-      <c r="V43" s="41"/>
-      <c r="W43" s="41"/>
-      <c r="X43" s="41"/>
-      <c r="Y43" s="41"/>
-      <c r="Z43" s="41"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="53"/>
+      <c r="T43" s="53"/>
+      <c r="U43" s="53"/>
+      <c r="V43" s="53"/>
+      <c r="W43" s="53"/>
+      <c r="X43" s="53"/>
+      <c r="Y43" s="53"/>
+      <c r="Z43" s="53"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="93"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="53"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="53"/>
+      <c r="V44" s="53"/>
+      <c r="W44" s="53"/>
+      <c r="X44" s="53"/>
+      <c r="Y44" s="53"/>
+      <c r="Z44" s="53"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="1"/>
@@ -58250,6 +58340,34 @@
       <c r="Y1000" s="1"/>
       <c r="Z1000" s="1"/>
     </row>
+    <row r="1001" ht="12.75" customHeight="1">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="1"/>
+      <c r="C1001" s="1"/>
+      <c r="D1001" s="1"/>
+      <c r="E1001" s="1"/>
+      <c r="F1001" s="1"/>
+      <c r="G1001" s="1"/>
+      <c r="H1001" s="1"/>
+      <c r="I1001" s="1"/>
+      <c r="J1001" s="1"/>
+      <c r="K1001" s="1"/>
+      <c r="L1001" s="1"/>
+      <c r="M1001" s="1"/>
+      <c r="N1001" s="1"/>
+      <c r="O1001" s="1"/>
+      <c r="P1001" s="1"/>
+      <c r="Q1001" s="1"/>
+      <c r="R1001" s="1"/>
+      <c r="S1001" s="1"/>
+      <c r="T1001" s="1"/>
+      <c r="U1001" s="1"/>
+      <c r="V1001" s="1"/>
+      <c r="W1001" s="1"/>
+      <c r="X1001" s="1"/>
+      <c r="Y1001" s="1"/>
+      <c r="Z1001" s="1"/>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.5" footer="0.0" header="0.0" left="0.3" right="0.3" top="0.5"/>

--- a/api/Templates/CSFunding 2017-18 Invoice Summary w Signature - Template.xlsx
+++ b/api/Templates/CSFunding 2017-18 Invoice Summary w Signature - Template.xlsx
@@ -26,19 +26,28 @@
     <t>For the Months of July ${FirstYear} to ${AsOfMonth} ${AsOfYear}</t>
   </si>
   <si>
+    <t>Remit To:</t>
+  </si>
+  <si>
+    <t>Pennsylvania Cyber Charter</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
     <t>Invoice #: ${Number}</t>
   </si>
   <si>
-    <t>Remit To:</t>
-  </si>
-  <si>
     <t>${SchoolDistrict.Aun}</t>
   </si>
   <si>
-    <t>Pennsylvania Cyber Charter</t>
-  </si>
-  <si>
-    <t>School</t>
+    <t>Business Office, Suite A130</t>
+  </si>
+  <si>
+    <t>Individual Student Information Sheet</t>
+  </si>
+  <si>
+    <t>652 Midland Ave</t>
   </si>
   <si>
     <t>Invoice Prep Date:</t>
@@ -47,32 +56,7 @@
     <t>${Prepared}</t>
   </si>
   <si>
-    <t>Business Office, Suite A130</t>
-  </si>
-  <si>
     <t>${SchoolDistrict.Name}</t>
-  </si>
-  <si>
-    <t>Date Sent to SD:</t>
-  </si>
-  <si>
-    <t>${ToSchoolDistrict}</t>
-  </si>
-  <si>
-    <t>Date Sent to PDE:</t>
-  </si>
-  <si>
-    <t>${ToPDE}</t>
-  </si>
-  <si>
-    <t>Individual Student Information Sheet</t>
-  </si>
-  <si>
-    <t>652 Midland Ave</t>
-  </si>
-  <si>
-    <t>JUL
-${FirstYear}</t>
   </si>
   <si>
     <r>
@@ -123,7 +107,26 @@
     </r>
   </si>
   <si>
+    <t>Date Sent to SD:</t>
+  </si>
+  <si>
     <t>Midland, PA 15059</t>
+  </si>
+  <si>
+    <t>${ToSchoolDistrict}</t>
+  </si>
+  <si>
+    <t>Date Sent to PDE:</t>
+  </si>
+  <si>
+    <t>${ToPDE}</t>
+  </si>
+  <si>
+    <t>724-888-7792</t>
+  </si>
+  <si>
+    <t>JUL
+${FirstYear}</t>
   </si>
   <si>
     <t>AUG
@@ -177,9 +180,6 @@
 Due</t>
   </si>
   <si>
-    <t>724-888-7792</t>
-  </si>
-  <si>
     <t>Nonspecial Education</t>
   </si>
   <si>
@@ -222,6 +222,15 @@
     <t>${SchoolDistrict.RegularRate}</t>
   </si>
   <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS Student </t>
+  </si>
+  <si>
+    <t>Last Day</t>
+  </si>
+  <si>
     <t>Special Education</t>
   </si>
   <si>
@@ -264,6 +273,9 @@
     <t>${SchoolDistrict.SpecialRate}</t>
   </si>
   <si>
+    <t>Date of IEP</t>
+  </si>
+  <si>
     <t>Total Amount Due Year to Date:</t>
   </si>
   <si>
@@ -282,9 +294,24 @@
     <t>Month</t>
   </si>
   <si>
+    <t>Enrollment</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Direct Payment</t>
   </si>
   <si>
+    <t>First Day</t>
+  </si>
+  <si>
+    <t>Educated</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
     <t>Number</t>
   </si>
   <si>
@@ -294,9 +321,27 @@
     <t xml:space="preserve">  Deduction</t>
   </si>
   <si>
+    <t>PASecureID</t>
+  </si>
+  <si>
+    <t>Student Name and Address</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>(if student</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Charter School</t>
   </si>
   <si>
+    <t>Education</t>
+  </si>
+  <si>
     <t>July, ${FirstYear}</t>
   </si>
   <si>
@@ -309,45 +354,57 @@
     <t>${Transactions.July.Payment.Date}</t>
   </si>
   <si>
+    <t>Form Sent to SD:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> withdrew)</t>
+  </si>
+  <si>
     <t>${Transactions.July.Payment.UniPayAmount}</t>
   </si>
   <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS Student </t>
-  </si>
-  <si>
-    <t>Last Day</t>
-  </si>
-  <si>
-    <t>Date of IEP</t>
-  </si>
-  <si>
     <t>${Transactions.July.Refund}</t>
   </si>
   <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Prior</t>
+  </si>
+  <si>
     <t>August</t>
   </si>
   <si>
+    <t>${Students[0].FullName}</t>
+  </si>
+  <si>
     <t>${Transactions.August.Payment.CheckAmount}</t>
   </si>
   <si>
     <t>${Transactions.August.Payment.CheckNumber}</t>
   </si>
   <si>
+    <t>${Students[0].DateOfBirth}</t>
+  </si>
+  <si>
     <t>${Transactions.August.Payment.Date}</t>
   </si>
   <si>
+    <t>${Students[0].CurrentIep}</t>
+  </si>
+  <si>
+    <t>${Students[0].PASecuredID}</t>
+  </si>
+  <si>
     <t>${Transactions.August.Payment.UniPayAmount}</t>
   </si>
   <si>
+    <t>${Students[0].Street1}</t>
+  </si>
+  <si>
     <t>${Transactions.August.Refund}</t>
   </si>
   <si>
-    <t>Enrollment</t>
-  </si>
-  <si>
     <t>September</t>
   </si>
   <si>
@@ -369,9 +426,6 @@
     <t>October</t>
   </si>
   <si>
-    <t>First Day</t>
-  </si>
-  <si>
     <t>${Transactions.October.Payment.CheckAmount}</t>
   </si>
   <si>
@@ -405,13 +459,10 @@
     <t>${Transactions.November.Refund}</t>
   </si>
   <si>
-    <t>Educated</t>
-  </si>
-  <si>
-    <t>Special</t>
-  </si>
-  <si>
-    <t>Current</t>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>${Students[0].FirstDay}</t>
   </si>
   <si>
     <t>December</t>
@@ -444,25 +495,16 @@
     <t>${Transactions.January.Payment.Date}</t>
   </si>
   <si>
-    <t>PASecureID</t>
-  </si>
-  <si>
-    <t>Student Name and Address</t>
-  </si>
-  <si>
     <t>${Transactions.January.Payment.UniPayAmount}</t>
   </si>
   <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>Notification</t>
-  </si>
-  <si>
     <t>${Transactions.January.Refund}</t>
   </si>
   <si>
-    <t>(if student</t>
+    <t>${Students[0].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[0].IsSpecialEducation}</t>
   </si>
   <si>
     <t>February</t>
@@ -510,18 +552,24 @@
     <t>${Transactions.April.Payment.CheckNumber}</t>
   </si>
   <si>
-    <t>Education</t>
-  </si>
-  <si>
     <t>${Transactions.April.Payment.Date}</t>
   </si>
   <si>
+    <t>${Students[0].Street2}</t>
+  </si>
+  <si>
     <t>${Transactions.April.Payment.UniPayAmount}</t>
   </si>
   <si>
     <t>${Transactions.April.Refund}</t>
   </si>
   <si>
+    <t>${Students[0].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[0].FormerIep}</t>
+  </si>
+  <si>
     <t>May</t>
   </si>
   <si>
@@ -546,63 +594,15 @@
     <t>${Transactions.June.Payment.CheckAmount}</t>
   </si>
   <si>
-    <t>Form Sent to SD:</t>
+    <t>${Students[0].City} ${Students[0].State} ${Students[0].ZipCode}</t>
   </si>
   <si>
     <t>${Transactions.June.Payment.CheckNumber}</t>
   </si>
   <si>
-    <t xml:space="preserve"> withdrew)</t>
-  </si>
-  <si>
     <t>${Transactions.June.Payment.Date}</t>
   </si>
   <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Prior</t>
-  </si>
-  <si>
-    <t>${Students[0].FullName}</t>
-  </si>
-  <si>
-    <t>${Students[0].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[0].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[0].PASecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[0].Street1}</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>${Students[0].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[0].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[0].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[0].Street2}</t>
-  </si>
-  <si>
-    <t>${Students[0].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[0].FormerIep}</t>
-  </si>
-  <si>
-    <t>${Students[0].City}, ${Students[0].State} ${Students[0].ZipCode}</t>
-  </si>
-  <si>
     <t>${Students[1].FullName}</t>
   </si>
   <si>
@@ -633,10 +633,13 @@
     <t>${Students[1].Grade}</t>
   </si>
   <si>
+    <t>${Transactions.June.Payment.UniPayAmount}</t>
+  </si>
+  <si>
     <t>${Students[1].FormerIep}</t>
   </si>
   <si>
-    <t>${Students[1].City}, ${Students[1].State} ${Students[1].ZipCode}</t>
+    <t>${Students[1].City} ${Students[1].State} ${Students[1].ZipCode}</t>
   </si>
   <si>
     <t>${Students[2].FullName}</t>
@@ -648,6 +651,9 @@
     <t>${Students[2].CurrentIep}</t>
   </si>
   <si>
+    <t>${Transactions.June.Refund}</t>
+  </si>
+  <si>
     <t>${Students[2].PASecuredID}</t>
   </si>
   <si>
@@ -672,7 +678,7 @@
     <t>${Students[2].FormerIep}</t>
   </si>
   <si>
-    <t>${Students[2].City}, ${Students[2].State} ${Students[2].ZipCode}</t>
+    <t>${Students[2].City} ${Students[2].State} ${Students[2].ZipCode}</t>
   </si>
   <si>
     <t>${Students[3].FullName}</t>
@@ -708,7 +714,7 @@
     <t>${Students[3].FormerIep}</t>
   </si>
   <si>
-    <t>${Students[3].City}, ${Students[3].State} ${Students[3].ZipCode}</t>
+    <t>${Students[3].City} ${Students[3].State} ${Students[3].ZipCode}</t>
   </si>
   <si>
     <t>${Students[4].FullName}</t>
@@ -744,7 +750,7 @@
     <t>${Students[4].FormerIep}</t>
   </si>
   <si>
-    <t>${Students[4].City}, ${Students[4].State} ${Students[4].ZipCode}</t>
+    <t>${Students[4].City} ${Students[4].State} ${Students[4].ZipCode}</t>
   </si>
   <si>
     <t>${Students[5].FullName}</t>
@@ -780,7 +786,7 @@
     <t>${Students[5].FormerIep}</t>
   </si>
   <si>
-    <t>${Students[5].City}, ${Students[5].State} ${Students[5].ZipCode}</t>
+    <t>${Students[5].City} ${Students[5].State} ${Students[5].ZipCode}</t>
   </si>
   <si>
     <t>${Students[6].FullName}</t>
@@ -792,6 +798,9 @@
     <t>${Students[6].CurrentIep}</t>
   </si>
   <si>
+    <t>Total Paid to Date for ${FirstYear}-${SecondYear} School Year:</t>
+  </si>
+  <si>
     <t>${Students[6].PASecuredID}</t>
   </si>
   <si>
@@ -816,7 +825,7 @@
     <t>${Students[6].FormerIep}</t>
   </si>
   <si>
-    <t>${Students[6].City}, ${Students[6].State} ${Students[6].ZipCode}</t>
+    <t>${Students[6].City} ${Students[6].State} ${Students[6].ZipCode}</t>
   </si>
   <si>
     <t>${Students[7].FullName}</t>
@@ -852,16 +861,7 @@
     <t>${Students[7].FormerIep}</t>
   </si>
   <si>
-    <t>${Students[7].City}, ${Students[7].State} ${Students[7].ZipCode}</t>
-  </si>
-  <si>
-    <t>${Transactions.June.Payment.UniPayAmount}</t>
-  </si>
-  <si>
-    <t>${Transactions.June.Refund}</t>
-  </si>
-  <si>
-    <t>Total Paid to Date for ${FirstYear}-${SecondYear} School Year:</t>
+    <t>${Students[7].City} ${Students[7].State} ${Students[7].ZipCode}</t>
   </si>
   <si>
     <t>724-888-7792 x</t>
@@ -921,16 +921,20 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color rgb="FF800000"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FF800000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -940,26 +944,22 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="9.0"/>
+    </font>
+    <font>
       <b/>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <b/>
+      <sz val="11.0"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
       <color rgb="FF800000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1045,6 +1045,76 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -1053,6 +1123,16 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -1075,16 +1155,14 @@
       </top>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <right style="thin">
@@ -1097,26 +1175,6 @@
     <border>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
@@ -1134,6 +1192,17 @@
       <left/>
       <right/>
       <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
     </border>
@@ -1147,11 +1216,9 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
       <left style="thin">
@@ -1165,8 +1232,23 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEAEAEA"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEAEAEA"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -1182,14 +1264,14 @@
       </right>
     </border>
     <border>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom/>
     </border>
@@ -1197,118 +1279,19 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFEAEAEA"/>
       </bottom>
     </border>
     <border>
       <right/>
       <top/>
       <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD8D8D8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFD8D8D8"/>
-      </right>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEAEAEA"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEAEAEA"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FFEAEAEA"/>
-      </bottom>
     </border>
     <border>
       <right style="thin">
@@ -1334,11 +1317,28 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFD8D8D8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD8D8D8"/>
+      </right>
+      <bottom/>
     </border>
     <border>
       <left style="thin">
@@ -1407,231 +1407,231 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="11" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf borderId="14" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="15" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf borderId="16" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="18" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="18" fillId="2" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="19" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="20" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="22" fillId="2" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="24" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="25" fillId="4" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="19" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="26" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="27" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="20" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="21" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="28" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="21" fillId="2" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="20" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="18" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="24" fillId="2" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="16" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="23" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="25" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="26" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="25" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="27" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="30" fillId="2" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="31" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="28" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="23" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="28" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="23" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="32" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="33" fillId="2" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="34" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="35" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="30" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="31" fillId="4" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="29" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="35" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="33" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="35" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="36" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="37" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="36" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="37" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="33" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="37" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="37" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="38" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf borderId="38" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="39" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="38" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="40" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="41" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1645,17 +1645,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="44" fillId="2" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="11" fillId="0" fontId="5" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1704,7 +1704,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1774,52 +1774,52 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="13"/>
+      <c r="A6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="16"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15" t="s">
-        <v>9</v>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="M6" s="1"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="19" t="s">
-        <v>10</v>
+      <c r="N6" s="19"/>
+      <c r="O6" s="20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="13"/>
+      <c r="A7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="16"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1828,19 +1828,19 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15" t="s">
-        <v>13</v>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="19" t="s">
-        <v>14</v>
+      <c r="N7" s="19"/>
+      <c r="O7" s="20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1849,27 +1849,27 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15" t="s">
-        <v>15</v>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="19" t="s">
-        <v>16</v>
+      <c r="N8" s="19"/>
+      <c r="O8" s="20" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1879,14 +1879,14 @@
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1895,141 +1895,141 @@
     </row>
     <row r="11" ht="39.0" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="C11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="D11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="E11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="G11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="H11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="I11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="J11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="K11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="L11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="M11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="N11" s="22" t="s">
         <v>34</v>
       </c>
+      <c r="O11" s="24" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="27" t="s">
+      <c r="L12" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="27" t="s">
+      <c r="M12" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="N12" s="28" t="s">
+      <c r="N12" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="29" t="str">
+      <c r="O12" s="35" t="str">
         <f t="shared" ref="O12:O13" si="1">ROUND(SUMIF(B12:M12,"&gt;0")*N12/12,2)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="B13" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="C13" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="D13" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="E13" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="F13" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="G13" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="H13" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="27" t="s">
+      <c r="I13" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="27" t="s">
+      <c r="J13" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="N13" s="28" t="s">
+      <c r="K13" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="O13" s="29" t="str">
+      <c r="L13" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="35" t="str">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
@@ -2063,12 +2063,12 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="O15" s="32" t="str">
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15" s="42" t="str">
         <f>SUM(O12:O13)</f>
         <v>#VALUE!</v>
       </c>
@@ -2095,22 +2095,22 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="33" t="s">
-        <v>65</v>
+      <c r="E17" s="44" t="s">
+        <v>69</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>67</v>
+      <c r="G17" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>71</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="33" t="s">
-        <v>68</v>
+      <c r="K17" s="44" t="s">
+        <v>72</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2120,58 +2120,58 @@
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="35" t="s">
+      <c r="C18" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="G18" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="52"/>
+      <c r="K18" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" s="45"/>
-      <c r="L19" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="M19" s="53"/>
+      <c r="C19" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="54"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="63"/>
+      <c r="J19" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="63"/>
+      <c r="L19" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="M19" s="68"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
@@ -2179,316 +2179,316 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" s="60"/>
-      <c r="J20" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="M20" s="65"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="79"/>
+      <c r="J20" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="79"/>
+      <c r="L20" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="M20" s="83"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="K21" s="60"/>
-      <c r="L21" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="M21" s="65"/>
+      <c r="C21" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="79"/>
+      <c r="J21" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="K21" s="79"/>
+      <c r="L21" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="M21" s="83"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="K22" s="60"/>
-      <c r="L22" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="M22" s="65"/>
+      <c r="C22" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="79"/>
+      <c r="J22" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="79"/>
+      <c r="L22" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="M22" s="83"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="K23" s="60"/>
-      <c r="L23" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="M23" s="65"/>
+      <c r="C23" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="79"/>
+      <c r="J23" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23" s="79"/>
+      <c r="L23" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="M23" s="83"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="68"/>
+      <c r="O23" s="86"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="K24" s="60"/>
-      <c r="L24" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="M24" s="65"/>
+      <c r="C24" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="44"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" s="79"/>
+      <c r="J24" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="K24" s="79"/>
+      <c r="L24" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="M24" s="83"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="H25" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="K25" s="60"/>
-      <c r="L25" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="M25" s="65"/>
+      <c r="C25" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="44"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" s="79"/>
+      <c r="J25" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="79"/>
+      <c r="L25" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="M25" s="83"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="H26" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="K26" s="60"/>
-      <c r="L26" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="M26" s="65"/>
+      <c r="C26" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" s="79"/>
+      <c r="J26" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="79"/>
+      <c r="L26" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="M26" s="83"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="G27" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="H27" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="I27" s="60"/>
-      <c r="J27" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="K27" s="60"/>
-      <c r="L27" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="M27" s="65"/>
+      <c r="C27" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="44"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="H27" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="I27" s="79"/>
+      <c r="J27" s="81" t="s">
+        <v>155</v>
+      </c>
+      <c r="K27" s="79"/>
+      <c r="L27" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="M27" s="83"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="H28" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="K28" s="60"/>
-      <c r="L28" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="M28" s="65"/>
+      <c r="C28" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="44"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="I28" s="79"/>
+      <c r="J28" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="K28" s="79"/>
+      <c r="L28" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="M28" s="83"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="G29" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="H29" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="I29" s="60"/>
-      <c r="J29" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="K29" s="60"/>
-      <c r="L29" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="M29" s="65"/>
+      <c r="C29" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="44"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="I29" s="79"/>
+      <c r="J29" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="K29" s="79"/>
+      <c r="L29" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="M29" s="83"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="77" t="s">
-        <v>159</v>
+      <c r="C30" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="48"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" s="94" t="s">
+        <v>175</v>
       </c>
       <c r="H30" s="96" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="I30" s="97"/>
       <c r="J30" s="98" t="s">
-        <v>261</v>
+        <v>187</v>
       </c>
       <c r="K30" s="97"/>
       <c r="L30" s="99" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="M30" s="100"/>
       <c r="N30" s="1"/>
@@ -2516,7 +2516,7 @@
         <f>SUM(L19:L30)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="68"/>
+      <c r="M31" s="86"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
@@ -2540,9 +2540,9 @@
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="103" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D33" s="1"/>
@@ -2555,8 +2555,8 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="31" t="s">
-        <v>263</v>
+      <c r="N33" s="39" t="s">
+        <v>242</v>
       </c>
       <c r="O33" s="105">
         <f>ROUND(F31+J31-L31,2)</f>
@@ -2566,8 +2566,8 @@
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="12" t="s">
-        <v>11</v>
+      <c r="C34" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="104"/>
@@ -2585,8 +2585,8 @@
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="12" t="s">
-        <v>18</v>
+      <c r="C35" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2598,7 +2598,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="31" t="str">
+      <c r="N35" s="39" t="str">
         <f>IF(O15-O33&gt;=0,"Net Due to Charter School:","Net Due to School District:")</f>
         <v>#VALUE!</v>
       </c>
@@ -2610,8 +2610,8 @@
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="12" t="s">
-        <v>21</v>
+      <c r="C36" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2629,7 +2629,7 @@
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="9" t="s">
         <v>264</v>
       </c>
       <c r="D37" s="1"/>
@@ -2748,12 +2748,12 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="103" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J43" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="K43" s="41"/>
+        <v>13</v>
+      </c>
+      <c r="K43" s="27"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -2776,6 +2776,962 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.25" footer="0.0" header="0.0" left="0.0" right="0.0" top="0.25"/>
@@ -2810,64 +3766,64 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="10" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="14" t="s">
-        <v>8</v>
+      <c r="J2" s="11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="18" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="12" t="s">
-        <v>11</v>
+      <c r="J3" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="20"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="12" t="s">
-        <v>18</v>
+      <c r="J4" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
@@ -2877,803 +3833,803 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="12" t="s">
-        <v>21</v>
+      <c r="J5" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="B6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="J6" s="12" t="s">
-        <v>35</v>
+      <c r="J6" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="19" t="s">
-        <v>10</v>
+      <c r="F7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48" t="s">
-        <v>83</v>
+      <c r="B9" s="29"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="34"/>
+      <c r="I9" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="J10" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" s="69" t="s">
-        <v>113</v>
+      <c r="B10" s="38"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" s="70" t="s">
+      <c r="B11" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="43"/>
+      <c r="F11" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" s="50"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="62"/>
+      <c r="I12" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="50"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="73"/>
+      <c r="F13" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="50"/>
+      <c r="B14" s="78">
+        <v>1.0</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="84"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="J11" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="K11" s="48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="36"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="78" t="s">
-        <v>160</v>
-      </c>
-      <c r="J12" s="69" t="s">
-        <v>162</v>
-      </c>
-      <c r="K12" s="69" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81" t="s">
+      <c r="I14" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" s="88"/>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="50"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="84"/>
+      <c r="F15" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="83" t="s">
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="83" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="85">
-        <v>1.0</v>
-      </c>
-      <c r="C14" s="86" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="87" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="H14" s="90" t="s">
-        <v>170</v>
-      </c>
-      <c r="I14" s="90" t="s">
-        <v>171</v>
-      </c>
-      <c r="J14" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="K14" s="91"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="36"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15" s="88"/>
-      <c r="F15" s="79" t="s">
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="50"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="93" t="s">
         <v>174</v>
       </c>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="83" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="36"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="94" t="s">
-        <v>176</v>
-      </c>
       <c r="E16" s="95"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="91"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="88"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="36"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="81" t="s">
+      <c r="A17" s="50"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="83" t="s">
+      <c r="E17" s="73"/>
+      <c r="F17" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="83" t="s">
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="75" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="36"/>
-      <c r="B18" s="85">
+      <c r="A18" s="50"/>
+      <c r="B18" s="78">
         <f>B14+1</f>
         <v>2</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="87" t="s">
+      <c r="D18" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="H18" s="90" t="s">
+      <c r="E18" s="84"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="I18" s="90" t="s">
+      <c r="I18" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="J18" s="85" t="s">
+      <c r="J18" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="K18" s="91"/>
+      <c r="K18" s="88"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="88"/>
-      <c r="F19" s="79" t="s">
+      <c r="E19" s="84"/>
+      <c r="F19" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="83" t="s">
-        <v>187</v>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="75" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="94" t="s">
-        <v>188</v>
+      <c r="A20" s="50"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="93" t="s">
+        <v>189</v>
       </c>
       <c r="E20" s="95"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="91"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="88"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="36"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="81" t="s">
-        <v>189</v>
-      </c>
-      <c r="E21" s="82"/>
-      <c r="F21" s="83" t="s">
+      <c r="A21" s="50"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="83" t="s">
+      <c r="E21" s="73"/>
+      <c r="F21" s="75" t="s">
         <v>191</v>
       </c>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="75" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="36"/>
-      <c r="B22" s="85">
+      <c r="A22" s="50"/>
+      <c r="B22" s="78">
         <f>B18+1</f>
         <v>3</v>
       </c>
-      <c r="C22" s="86" t="s">
-        <v>192</v>
-      </c>
-      <c r="D22" s="87" t="s">
-        <v>193</v>
-      </c>
-      <c r="E22" s="88"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="H22" s="90" t="s">
+      <c r="C22" s="80" t="s">
         <v>194</v>
       </c>
-      <c r="I22" s="90" t="s">
+      <c r="D22" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="J22" s="85" t="s">
+      <c r="E22" s="84"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="K22" s="91"/>
+      <c r="I22" s="87" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" s="88"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="36"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="E23" s="88"/>
-      <c r="F23" s="79" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="83" t="s">
+      <c r="A23" s="50"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="82" t="s">
         <v>199</v>
       </c>
+      <c r="E23" s="84"/>
+      <c r="F23" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="75" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="36"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="94" t="s">
-        <v>200</v>
+      <c r="A24" s="50"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="93" t="s">
+        <v>202</v>
       </c>
       <c r="E24" s="95"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="91"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="88"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="36"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="81" t="s">
-        <v>201</v>
-      </c>
-      <c r="E25" s="82"/>
-      <c r="F25" s="83" t="s">
-        <v>202</v>
-      </c>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="83" t="s">
+      <c r="A25" s="50"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="71" t="s">
         <v>203</v>
       </c>
+      <c r="E25" s="73"/>
+      <c r="F25" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="75" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="85">
+      <c r="A26" s="50"/>
+      <c r="B26" s="78">
         <f>B22+1</f>
         <v>4</v>
       </c>
-      <c r="C26" s="86" t="s">
-        <v>204</v>
-      </c>
-      <c r="D26" s="87" t="s">
-        <v>205</v>
-      </c>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="H26" s="90" t="s">
+      <c r="C26" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="I26" s="90" t="s">
+      <c r="D26" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="J26" s="85" t="s">
+      <c r="E26" s="84"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="K26" s="91"/>
+      <c r="I26" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="J26" s="78" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" s="88"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="E27" s="88"/>
-      <c r="F27" s="79" t="s">
-        <v>210</v>
-      </c>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="83" t="s">
+      <c r="A27" s="50"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="82" t="s">
         <v>211</v>
       </c>
+      <c r="E27" s="84"/>
+      <c r="F27" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="75" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="36"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="94" t="s">
-        <v>212</v>
+      <c r="A28" s="50"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="93" t="s">
+        <v>214</v>
       </c>
       <c r="E28" s="95"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="91"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="88"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="36"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="81" t="s">
-        <v>213</v>
-      </c>
-      <c r="E29" s="82"/>
-      <c r="F29" s="83" t="s">
-        <v>214</v>
-      </c>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="83" t="s">
+      <c r="A29" s="50"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="71" t="s">
         <v>215</v>
       </c>
+      <c r="E29" s="73"/>
+      <c r="F29" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="75" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="85">
+      <c r="A30" s="50"/>
+      <c r="B30" s="78">
         <f>B26+1</f>
         <v>5</v>
       </c>
-      <c r="C30" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="D30" s="87" t="s">
-        <v>217</v>
-      </c>
-      <c r="E30" s="88"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="H30" s="90" t="s">
+      <c r="C30" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="I30" s="90" t="s">
+      <c r="D30" s="82" t="s">
         <v>219</v>
       </c>
-      <c r="J30" s="85" t="s">
+      <c r="E30" s="84"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" s="87" t="s">
         <v>220</v>
       </c>
-      <c r="K30" s="91"/>
+      <c r="I30" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" s="78" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" s="88"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="36"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="E31" s="88"/>
-      <c r="F31" s="79" t="s">
-        <v>222</v>
-      </c>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="83" t="s">
+      <c r="A31" s="50"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="82" t="s">
         <v>223</v>
       </c>
+      <c r="E31" s="84"/>
+      <c r="F31" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="75" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="36"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="94" t="s">
-        <v>224</v>
+      <c r="A32" s="50"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="93" t="s">
+        <v>226</v>
       </c>
       <c r="E32" s="95"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="91"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="88"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="36"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="81" t="s">
-        <v>225</v>
-      </c>
-      <c r="E33" s="82"/>
-      <c r="F33" s="83" t="s">
-        <v>226</v>
-      </c>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="83" t="s">
+      <c r="A33" s="50"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="71" t="s">
         <v>227</v>
       </c>
+      <c r="E33" s="73"/>
+      <c r="F33" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="75" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="36"/>
-      <c r="B34" s="85">
+      <c r="A34" s="50"/>
+      <c r="B34" s="78">
         <f>B30+1</f>
         <v>6</v>
       </c>
-      <c r="C34" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="D34" s="87" t="s">
-        <v>229</v>
-      </c>
-      <c r="E34" s="88"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="H34" s="90" t="s">
+      <c r="C34" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="I34" s="90" t="s">
+      <c r="D34" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="J34" s="85" t="s">
+      <c r="E34" s="84"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="H34" s="87" t="s">
         <v>232</v>
       </c>
-      <c r="K34" s="91"/>
+      <c r="I34" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="J34" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="K34" s="88"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="36"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="87" t="s">
-        <v>233</v>
-      </c>
-      <c r="E35" s="88"/>
-      <c r="F35" s="79" t="s">
-        <v>234</v>
-      </c>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="83" t="s">
+      <c r="A35" s="50"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="82" t="s">
         <v>235</v>
       </c>
+      <c r="E35" s="84"/>
+      <c r="F35" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="75" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="36"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="94" t="s">
-        <v>236</v>
+      <c r="A36" s="50"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="93" t="s">
+        <v>238</v>
       </c>
       <c r="E36" s="95"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="91"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="88"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="36"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="81" t="s">
-        <v>237</v>
-      </c>
-      <c r="E37" s="82"/>
-      <c r="F37" s="83" t="s">
-        <v>238</v>
-      </c>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="83" t="s">
+      <c r="A37" s="50"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="71" t="s">
         <v>239</v>
       </c>
+      <c r="E37" s="73"/>
+      <c r="F37" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="75" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="36"/>
-      <c r="B38" s="85">
+      <c r="A38" s="50"/>
+      <c r="B38" s="78">
         <f>B34+1</f>
         <v>7</v>
       </c>
-      <c r="C38" s="86" t="s">
-        <v>240</v>
-      </c>
-      <c r="D38" s="87" t="s">
-        <v>241</v>
-      </c>
-      <c r="E38" s="88"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="H38" s="90" t="s">
-        <v>242</v>
-      </c>
-      <c r="I38" s="90" t="s">
+      <c r="C38" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="J38" s="85" t="s">
+      <c r="D38" s="82" t="s">
         <v>244</v>
       </c>
-      <c r="K38" s="91"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="I38" s="87" t="s">
+        <v>246</v>
+      </c>
+      <c r="J38" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="K38" s="88"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="36"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="E39" s="88"/>
-      <c r="F39" s="79" t="s">
-        <v>246</v>
-      </c>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="83" t="s">
-        <v>247</v>
+      <c r="A39" s="50"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="82" t="s">
+        <v>248</v>
+      </c>
+      <c r="E39" s="84"/>
+      <c r="F39" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="75" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="36"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="94" t="s">
-        <v>248</v>
+      <c r="A40" s="50"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="93" t="s">
+        <v>251</v>
       </c>
       <c r="E40" s="95"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="91"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="88"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="36"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="81" t="s">
-        <v>249</v>
-      </c>
-      <c r="E41" s="82"/>
-      <c r="F41" s="83" t="s">
-        <v>250</v>
-      </c>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="83" t="s">
-        <v>251</v>
+      <c r="A41" s="50"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="E41" s="73"/>
+      <c r="F41" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="75" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="36"/>
-      <c r="B42" s="85">
+      <c r="A42" s="50"/>
+      <c r="B42" s="78">
         <f>B38+1</f>
         <v>8</v>
       </c>
-      <c r="C42" s="86" t="s">
-        <v>252</v>
-      </c>
-      <c r="D42" s="87" t="s">
-        <v>253</v>
-      </c>
-      <c r="E42" s="88"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="H42" s="90" t="s">
-        <v>254</v>
-      </c>
-      <c r="I42" s="90" t="s">
+      <c r="C42" s="80" t="s">
         <v>255</v>
       </c>
-      <c r="J42" s="85" t="s">
+      <c r="D42" s="82" t="s">
         <v>256</v>
       </c>
-      <c r="K42" s="91"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="H42" s="87" t="s">
+        <v>257</v>
+      </c>
+      <c r="I42" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="J42" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="K42" s="88"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="36"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="87" t="s">
-        <v>257</v>
-      </c>
-      <c r="E43" s="88"/>
-      <c r="F43" s="79" t="s">
-        <v>258</v>
-      </c>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="83" t="s">
-        <v>259</v>
+      <c r="A43" s="50"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="82" t="s">
+        <v>260</v>
+      </c>
+      <c r="E43" s="84"/>
+      <c r="F43" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="75" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="36"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="94" t="s">
-        <v>260</v>
+      <c r="A44" s="50"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="93" t="s">
+        <v>263</v>
       </c>
       <c r="E44" s="95"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="92"/>
-      <c r="K44" s="91"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="88"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="1"/>
